--- a/JUL-2024/R-Car_Gen3_vsp2driver_PCL_v1.7.5_base.ja.en_old.xlsx
+++ b/JUL-2024/R-Car_Gen3_vsp2driver_PCL_v1.7.5_base.ja.en_old.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\long.trinh-tien\Documents\Linux-Lab\JUL-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0358B0-6FA7-4878-8A26-864C847F1E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CD7FC7-CB27-4C31-8FCE-9E42AE62A963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="833" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="833" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4571" uniqueCount="1985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4596" uniqueCount="1989">
   <si>
     <t>R-Car Gen3 VSP2 Integration Test Specification</t>
     <phoneticPr fontId="3"/>
@@ -15044,6 +15044,18 @@
   </si>
   <si>
     <t>Ok M3N</t>
+  </si>
+  <si>
+    <t>Build v4l2-measure</t>
+  </si>
+  <si>
+    <t>Ok E3</t>
+  </si>
+  <si>
+    <t>OK E3</t>
+  </si>
+  <si>
+    <t>OK H3</t>
   </si>
 </sst>
 </file>
@@ -18621,6 +18633,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -18667,13 +18686,6 @@
       <fill>
         <patternFill patternType="none">
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
         </patternFill>
       </fill>
     </dxf>
@@ -19398,198 +19410,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.249977111117893"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
       <border>
@@ -19712,212 +19537,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.249977111117893"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
       <border>
         <left style="thin">
           <color rgb="FF000000"/>
@@ -20122,109 +19741,8 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF0070C0"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.249977111117893"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
       <border>
         <left style="thin">
           <color rgb="FF000000"/>
@@ -20247,49 +19765,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
       <border>
@@ -20429,6 +19904,30 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF0070C0"/>
       </font>
       <border>
@@ -20472,6 +19971,126 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.249977111117893"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -20479,6 +20098,399 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.249977111117893"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.249977111117893"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
       <border>
         <left style="thin">
           <color rgb="FF000000"/>
@@ -22141,8 +22153,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="869950" y="17875250"/>
-          <a:ext cx="3375025" cy="1343025"/>
+          <a:off x="866775" y="17678400"/>
+          <a:ext cx="3368675" cy="1320800"/>
           <a:chOff x="2086" y="5893"/>
           <a:chExt cx="3104" cy="1645"/>
         </a:xfrm>
@@ -27358,7 +27370,7 @@
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
     </row>
-    <row r="2" spans="1:31" ht="18">
+    <row r="2" spans="1:31">
       <c r="K2" s="500" t="s">
         <v>397</v>
       </c>
@@ -30566,7 +30578,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="68" spans="1:31" s="62" customFormat="1" ht="123.5">
+    <row r="68" spans="1:31" s="62" customFormat="1" ht="122.5">
       <c r="A68" s="53"/>
       <c r="B68" s="54">
         <f t="shared" si="1"/>
@@ -30762,7 +30774,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="72" spans="1:31" s="62" customFormat="1" ht="123.5">
+    <row r="72" spans="1:31" s="62" customFormat="1" ht="122.5">
       <c r="A72" s="53"/>
       <c r="B72" s="193">
         <f t="shared" si="1"/>
@@ -30810,7 +30822,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="73" spans="1:31" s="62" customFormat="1" ht="123.5">
+    <row r="73" spans="1:31" s="62" customFormat="1" ht="122.5">
       <c r="A73" s="53"/>
       <c r="B73" s="193">
         <f t="shared" si="1"/>
@@ -30908,7 +30920,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="75" spans="1:31" s="62" customFormat="1" ht="123.5">
+    <row r="75" spans="1:31" s="62" customFormat="1" ht="122.5">
       <c r="A75" s="53"/>
       <c r="B75" s="193">
         <f t="shared" si="1"/>
@@ -30956,7 +30968,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="76" spans="1:31" s="62" customFormat="1" ht="123.5">
+    <row r="76" spans="1:31" s="62" customFormat="1" ht="122.5">
       <c r="A76" s="53"/>
       <c r="B76" s="193">
         <f t="shared" si="1"/>
@@ -31004,7 +31016,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="77" spans="1:31" s="62" customFormat="1" ht="123.5">
+    <row r="77" spans="1:31" s="62" customFormat="1" ht="122.5">
       <c r="A77" s="53"/>
       <c r="B77" s="193">
         <f t="shared" si="1"/>
@@ -31052,7 +31064,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="78" spans="1:31" s="62" customFormat="1" ht="123.5">
+    <row r="78" spans="1:31" s="62" customFormat="1" ht="122.5">
       <c r="A78" s="53"/>
       <c r="B78" s="193">
         <f t="shared" si="1"/>
@@ -31100,7 +31112,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="79" spans="1:31" s="62" customFormat="1" ht="123.5">
+    <row r="79" spans="1:31" s="62" customFormat="1" ht="122.5">
       <c r="A79" s="53"/>
       <c r="B79" s="193">
         <f t="shared" si="1"/>
@@ -31198,7 +31210,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="81" spans="1:31" s="62" customFormat="1" ht="123.5">
+    <row r="81" spans="1:31" s="62" customFormat="1" ht="122.5">
       <c r="A81" s="53"/>
       <c r="B81" s="193">
         <f t="shared" si="1"/>
@@ -31246,7 +31258,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="82" spans="1:31" s="62" customFormat="1" ht="123.5">
+    <row r="82" spans="1:31" s="62" customFormat="1" ht="122.5">
       <c r="A82" s="53"/>
       <c r="B82" s="193">
         <f t="shared" si="1"/>
@@ -31294,7 +31306,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="83" spans="1:31" s="62" customFormat="1" ht="123.5">
+    <row r="83" spans="1:31" s="62" customFormat="1" ht="122.5">
       <c r="A83" s="53"/>
       <c r="B83" s="193">
         <f t="shared" si="1"/>
@@ -31342,7 +31354,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="84" spans="1:31" s="62" customFormat="1" ht="123.5">
+    <row r="84" spans="1:31" s="62" customFormat="1" ht="122.5">
       <c r="A84" s="53"/>
       <c r="B84" s="193">
         <f t="shared" si="1"/>
@@ -31390,7 +31402,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="85" spans="1:31" s="62" customFormat="1" ht="123.5">
+    <row r="85" spans="1:31" s="62" customFormat="1" ht="122.5">
       <c r="A85" s="53"/>
       <c r="B85" s="193">
         <f t="shared" si="1"/>
@@ -31950,7 +31962,7 @@
       <c r="C1" s="83"/>
       <c r="D1" s="94"/>
     </row>
-    <row r="2" spans="2:31" ht="18">
+    <row r="2" spans="2:31">
       <c r="K2" s="500" t="s">
         <v>397</v>
       </c>
@@ -32453,7 +32465,7 @@
       </c>
       <c r="C1" s="83"/>
     </row>
-    <row r="3" spans="2:16" ht="54">
+    <row r="3" spans="2:16" ht="87.5">
       <c r="B3" s="87" t="s">
         <v>879</v>
       </c>
@@ -34087,8 +34099,8 @@
   </sheetPr>
   <dimension ref="B1:AE59"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -34134,7 +34146,7 @@
       <c r="B2" s="32"/>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="2:31" ht="18">
+    <row r="3" spans="2:31">
       <c r="B3" s="25" t="s">
         <v>1075</v>
       </c>
@@ -34167,7 +34179,7 @@
       <c r="AC3" s="507"/>
       <c r="AD3" s="508"/>
     </row>
-    <row r="4" spans="2:31" s="51" customFormat="1" ht="72">
+    <row r="4" spans="2:31" s="51" customFormat="1" ht="105">
       <c r="B4" s="101" t="s">
         <v>560</v>
       </c>
@@ -37131,27 +37143,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5:P19">
-    <cfRule type="expression" dxfId="78" priority="58" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="78" priority="57" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="58" stopIfTrue="1">
       <formula>#REF!="NT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="57" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5:U19">
-    <cfRule type="expression" dxfId="76" priority="30" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="76" priority="29" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="30" stopIfTrue="1">
       <formula>#REF!="NT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="29" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5:Z19">
-    <cfRule type="expression" dxfId="74" priority="2" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="74" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="2" stopIfTrue="1">
       <formula>#REF!="NT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5:AE59">
@@ -37378,7 +37390,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="4" spans="1:57" ht="18.5">
+    <row r="4" spans="1:57">
       <c r="A4" s="117"/>
       <c r="B4" s="117"/>
       <c r="C4" s="117"/>
@@ -38830,7 +38842,7 @@
       <c r="BD25" s="120"/>
       <c r="BE25" s="120"/>
     </row>
-    <row r="26" spans="1:57" ht="18.5">
+    <row r="26" spans="1:57">
       <c r="A26" s="117"/>
       <c r="B26" s="117"/>
       <c r="C26" s="117"/>
@@ -38891,7 +38903,7 @@
       <c r="BD26" s="117"/>
       <c r="BE26" s="117"/>
     </row>
-    <row r="27" spans="1:57" ht="18">
+    <row r="27" spans="1:57">
       <c r="A27" s="117"/>
       <c r="B27" s="117"/>
       <c r="C27" s="117"/>
@@ -40337,7 +40349,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="49" spans="1:57" ht="18">
+    <row r="49" spans="1:57">
       <c r="A49" s="117"/>
       <c r="B49" s="117"/>
       <c r="C49" s="117"/>
@@ -52052,7 +52064,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -52214,8 +52226,8 @@
   </sheetPr>
   <dimension ref="B1:P6"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -52464,7 +52476,7 @@
   </sheetPr>
   <dimension ref="B1:P6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -52635,8 +52647,8 @@
   </sheetPr>
   <dimension ref="B1:P11"/>
   <sheetViews>
-    <sheetView topLeftCell="GI1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -53055,8 +53067,8 @@
   </sheetPr>
   <dimension ref="B1:P12"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -53520,7 +53532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="B1:P10"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
@@ -54290,7 +54302,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:I131"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
@@ -55306,7 +55318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:B138"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
@@ -55925,7 +55937,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="18">
+    <row r="13" spans="2:6">
       <c r="B13" s="25" t="s">
         <v>255</v>
       </c>
@@ -56123,10 +56135,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:P92"/>
+  <dimension ref="A1:W92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P74" sqref="P74"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -56220,25 +56232,25 @@
       </c>
       <c r="L16" s="294"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:23">
       <c r="B17" s="25" t="s">
         <v>305</v>
       </c>
       <c r="L17" s="294"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:23">
       <c r="B18" s="25" t="s">
         <v>306</v>
       </c>
       <c r="L18" s="294"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:23">
       <c r="B19" s="25" t="s">
         <v>307</v>
       </c>
       <c r="L19" s="294"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:23">
       <c r="C20" s="25" t="s">
         <v>308</v>
       </c>
@@ -56247,7 +56259,7 @@
       </c>
       <c r="L20" s="294"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:23">
       <c r="C21" s="25" t="s">
         <v>310</v>
       </c>
@@ -56256,7 +56268,7 @@
       </c>
       <c r="L21" s="294"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:23">
       <c r="C22" s="25" t="s">
         <v>311</v>
       </c>
@@ -56265,7 +56277,7 @@
       </c>
       <c r="L22" s="294"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:23">
       <c r="C23" s="25" t="s">
         <v>312</v>
       </c>
@@ -56274,7 +56286,7 @@
       </c>
       <c r="L23" s="294"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:23">
       <c r="C24" s="25" t="s">
         <v>314</v>
       </c>
@@ -56283,7 +56295,7 @@
       </c>
       <c r="L24" s="294"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:23">
       <c r="C25" s="25" t="s">
         <v>315</v>
       </c>
@@ -56292,7 +56304,7 @@
       </c>
       <c r="L25" s="294"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:23">
       <c r="C26" s="25" t="s">
         <v>316</v>
       </c>
@@ -56300,17 +56312,21 @@
         <v>309</v>
       </c>
       <c r="L26" s="294"/>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="W26" s="25">
+        <f>SUM(U29:U90,421)</f>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="L27" s="294"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:23">
       <c r="B28" s="25" t="s">
         <v>317</v>
       </c>
       <c r="L28" s="294"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:23">
       <c r="A29" s="25" t="s">
         <v>1982</v>
       </c>
@@ -56326,17 +56342,26 @@
       <c r="P29" s="25" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29" s="25" t="s">
+        <v>1987</v>
+      </c>
+      <c r="R29" s="25" t="s">
+        <v>1988</v>
+      </c>
+      <c r="U29" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="C30" s="25" t="s">
         <v>321</v>
       </c>
       <c r="L30" s="294"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:23">
       <c r="L31" s="294"/>
     </row>
-    <row r="32" spans="1:16" s="377" customFormat="1">
+    <row r="32" spans="1:23" s="377" customFormat="1">
       <c r="A32" s="377" t="s">
         <v>1982</v>
       </c>
@@ -56352,29 +56377,38 @@
       <c r="P32" s="25" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32" s="25" t="s">
+        <v>1987</v>
+      </c>
+      <c r="R32" s="25" t="s">
+        <v>1988</v>
+      </c>
+      <c r="U32" s="377">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="C33" s="25" t="s">
         <v>325</v>
       </c>
       <c r="L33" s="294"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:21">
       <c r="C34" s="25" t="s">
         <v>326</v>
       </c>
       <c r="L34" s="294"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:21">
       <c r="C35" s="25" t="s">
         <v>327</v>
       </c>
       <c r="L35" s="294"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:21">
       <c r="L36" s="294"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:21">
       <c r="A37" s="25" t="s">
         <v>1982</v>
       </c>
@@ -56390,44 +56424,53 @@
       <c r="P37" s="25" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37" s="25" t="s">
+        <v>1987</v>
+      </c>
+      <c r="R37" s="25" t="s">
+        <v>1988</v>
+      </c>
+      <c r="U37" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="C38" s="25" t="s">
         <v>330</v>
       </c>
       <c r="L38" s="294"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:21">
       <c r="C39" s="25" t="s">
         <v>331</v>
       </c>
       <c r="L39" s="294"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:21">
       <c r="C40" s="25" t="s">
         <v>332</v>
       </c>
       <c r="L40" s="294"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:21">
       <c r="C41" s="25" t="s">
         <v>333</v>
       </c>
       <c r="L41" s="294"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:21">
       <c r="C42" s="25" t="s">
         <v>334</v>
       </c>
       <c r="L42" s="294"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:21">
       <c r="C43" s="25" t="s">
         <v>335</v>
       </c>
       <c r="L43" s="294"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:21">
       <c r="C44" s="25" t="s">
         <v>336</v>
       </c>
@@ -56436,7 +56479,7 @@
       </c>
       <c r="L44" s="294"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:21">
       <c r="C45" s="25" t="s">
         <v>338</v>
       </c>
@@ -56445,13 +56488,13 @@
       </c>
       <c r="L45" s="294"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:21">
       <c r="C46" s="25" t="s">
         <v>340</v>
       </c>
       <c r="L46" s="294"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:21">
       <c r="C47" s="25" t="s">
         <v>341</v>
       </c>
@@ -56460,10 +56503,10 @@
       </c>
       <c r="L47" s="294"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:21">
       <c r="L48" s="294"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:21">
       <c r="A49" s="25" t="s">
         <v>1983</v>
       </c>
@@ -56479,29 +56522,38 @@
       <c r="P49" s="25" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49" s="25" t="s">
+        <v>1987</v>
+      </c>
+      <c r="R49" s="25" t="s">
+        <v>1988</v>
+      </c>
+      <c r="U49" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="C50" s="25" t="s">
         <v>346</v>
       </c>
       <c r="L50" s="294"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:21">
       <c r="C51" s="25" t="s">
         <v>347</v>
       </c>
       <c r="L51" s="294"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:21">
       <c r="C52" s="25" t="s">
         <v>348</v>
       </c>
       <c r="L52" s="294"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:21">
       <c r="L53" s="294"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:21">
       <c r="B54" s="25" t="s">
         <v>349</v>
       </c>
@@ -56514,23 +56566,29 @@
       <c r="P54" s="25" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="Q54" s="25" t="s">
+        <v>1987</v>
+      </c>
+      <c r="U54" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="C55" s="25" t="s">
         <v>346</v>
       </c>
       <c r="L55" s="294"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:21">
       <c r="C56" s="25" t="s">
         <v>352</v>
       </c>
       <c r="L56" s="294"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:21">
       <c r="L57" s="294"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:21">
       <c r="B58" s="25" t="s">
         <v>349</v>
       </c>
@@ -56543,58 +56601,76 @@
       <c r="P58" s="25" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="Q58" s="25" t="s">
+        <v>1987</v>
+      </c>
+      <c r="U58" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
       <c r="C59" s="25" t="s">
         <v>355</v>
       </c>
       <c r="L59" s="294"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:21">
       <c r="C60" s="25" t="s">
         <v>356</v>
       </c>
       <c r="L60" s="294"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:21">
       <c r="L61" s="294"/>
     </row>
-    <row r="62" spans="1:16" s="371" customFormat="1">
+    <row r="62" spans="1:21" s="371" customFormat="1">
       <c r="B62" s="371" t="s">
         <v>357</v>
       </c>
       <c r="L62" s="372" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="P62" s="25" t="s">
+        <v>1984</v>
+      </c>
+      <c r="Q62" s="371" t="s">
+        <v>1986</v>
+      </c>
+      <c r="R62" s="25" t="s">
+        <v>1988</v>
+      </c>
+      <c r="U62" s="371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
       <c r="C63" s="25" t="s">
         <v>355</v>
       </c>
       <c r="L63" s="294"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:21">
       <c r="C64" s="25" t="s">
         <v>359</v>
       </c>
       <c r="L64" s="294"/>
     </row>
-    <row r="65" spans="2:16">
+    <row r="65" spans="2:21">
       <c r="C65" s="25" t="s">
         <v>356</v>
       </c>
       <c r="L65" s="294"/>
     </row>
-    <row r="66" spans="2:16">
+    <row r="66" spans="2:21">
       <c r="C66" s="25" t="s">
         <v>360</v>
       </c>
       <c r="L66" s="294"/>
     </row>
-    <row r="67" spans="2:16">
+    <row r="67" spans="2:21">
       <c r="L67" s="294"/>
     </row>
-    <row r="68" spans="2:16" s="377" customFormat="1">
+    <row r="68" spans="2:21" s="377" customFormat="1">
       <c r="B68" s="377" t="s">
         <v>361</v>
       </c>
@@ -56604,17 +56680,23 @@
       <c r="P68" s="25" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="69" spans="2:16">
+      <c r="Q68" s="25" t="s">
+        <v>1987</v>
+      </c>
+      <c r="U68" s="377">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21">
       <c r="C69" s="25" t="s">
         <v>363</v>
       </c>
       <c r="L69" s="294"/>
     </row>
-    <row r="70" spans="2:16">
+    <row r="70" spans="2:21">
       <c r="L70" s="294"/>
     </row>
-    <row r="71" spans="2:16">
+    <row r="71" spans="2:21">
       <c r="B71" s="25" t="s">
         <v>364</v>
       </c>
@@ -56624,17 +56706,23 @@
       <c r="P71" s="25" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="72" spans="2:16">
+      <c r="Q71" s="25" t="s">
+        <v>1987</v>
+      </c>
+      <c r="U71" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21">
       <c r="C72" s="25" t="s">
         <v>366</v>
       </c>
       <c r="L72" s="294"/>
     </row>
-    <row r="73" spans="2:16">
+    <row r="73" spans="2:21">
       <c r="L73" s="294"/>
     </row>
-    <row r="74" spans="2:16">
+    <row r="74" spans="2:21">
       <c r="B74" s="25" t="s">
         <v>367</v>
       </c>
@@ -56644,43 +56732,61 @@
       <c r="P74" s="25" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="75" spans="2:16">
+      <c r="Q74" s="25" t="s">
+        <v>1987</v>
+      </c>
+      <c r="U74" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21">
       <c r="C75" s="25" t="s">
         <v>369</v>
       </c>
       <c r="L75" s="294"/>
     </row>
-    <row r="76" spans="2:16">
+    <row r="76" spans="2:21">
       <c r="C76" s="25" t="s">
         <v>370</v>
       </c>
       <c r="L76" s="294"/>
     </row>
-    <row r="77" spans="2:16">
+    <row r="77" spans="2:21">
       <c r="L77" s="294"/>
     </row>
-    <row r="78" spans="2:16">
+    <row r="78" spans="2:21">
       <c r="B78" s="25" t="s">
         <v>371</v>
       </c>
       <c r="E78" s="25" t="s">
         <v>372</v>
       </c>
+      <c r="I78" s="25" t="s">
+        <v>1985</v>
+      </c>
       <c r="L78" s="295" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="79" spans="2:16">
+      <c r="P78" s="25" t="s">
+        <v>1984</v>
+      </c>
+      <c r="Q78" s="25" t="s">
+        <v>1987</v>
+      </c>
+      <c r="U78" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21">
       <c r="C79" s="25" t="s">
         <v>374</v>
       </c>
       <c r="L79" s="294"/>
     </row>
-    <row r="80" spans="2:16">
+    <row r="80" spans="2:21">
       <c r="L80" s="294"/>
     </row>
-    <row r="81" spans="2:12" s="371" customFormat="1">
+    <row r="81" spans="2:21" s="371" customFormat="1">
       <c r="B81" s="371" t="s">
         <v>375</v>
       </c>
@@ -56690,66 +56796,93 @@
       <c r="L81" s="372" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="82" spans="2:12">
+      <c r="P81" s="25" t="s">
+        <v>1984</v>
+      </c>
+      <c r="Q81" s="25" t="s">
+        <v>1987</v>
+      </c>
+      <c r="U81" s="371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:21">
       <c r="C82" s="25" t="s">
         <v>378</v>
       </c>
       <c r="L82" s="294"/>
     </row>
-    <row r="83" spans="2:12">
+    <row r="83" spans="2:21">
       <c r="C83" s="25" t="s">
         <v>379</v>
       </c>
       <c r="L83" s="294"/>
     </row>
-    <row r="84" spans="2:12">
+    <row r="84" spans="2:21">
       <c r="C84" s="25" t="s">
         <v>380</v>
       </c>
       <c r="L84" s="294"/>
     </row>
-    <row r="85" spans="2:12">
+    <row r="85" spans="2:21">
       <c r="L85" s="294"/>
     </row>
-    <row r="86" spans="2:12">
+    <row r="86" spans="2:21">
       <c r="B86" s="25" t="s">
         <v>381</v>
       </c>
       <c r="L86" s="294" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="87" spans="2:12">
+      <c r="P86" s="25" t="s">
+        <v>1984</v>
+      </c>
+      <c r="Q86" s="25" t="s">
+        <v>1987</v>
+      </c>
+      <c r="U86" s="25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="2:21">
       <c r="C87" s="25" t="s">
         <v>369</v>
       </c>
       <c r="L87" s="294"/>
     </row>
-    <row r="88" spans="2:12">
+    <row r="88" spans="2:21">
       <c r="C88" s="25" t="s">
         <v>383</v>
       </c>
       <c r="L88" s="294"/>
     </row>
-    <row r="89" spans="2:12">
+    <row r="89" spans="2:21">
       <c r="L89" s="294"/>
     </row>
-    <row r="90" spans="2:12">
+    <row r="90" spans="2:21">
       <c r="B90" s="25" t="s">
         <v>384</v>
       </c>
       <c r="L90" s="294" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="91" spans="2:12">
+      <c r="P90" s="25" t="s">
+        <v>1984</v>
+      </c>
+      <c r="Q90" s="25" t="s">
+        <v>1987</v>
+      </c>
+      <c r="U90" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:21">
       <c r="C91" s="25" t="s">
         <v>386</v>
       </c>
       <c r="L91" s="294"/>
     </row>
-    <row r="92" spans="2:12">
+    <row r="92" spans="2:21">
       <c r="C92" s="25" t="s">
         <v>383</v>
       </c>
@@ -61876,46 +62009,46 @@
     <mergeCell ref="G26:H26"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
-    <cfRule type="cellIs" dxfId="221" priority="48" operator="equal">
-      <formula>"OK"</formula>
+    <cfRule type="cellIs" dxfId="221" priority="41" operator="equal">
+      <formula>"Not Start"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="220" priority="42" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="41" operator="equal">
-      <formula>"Not Start"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="43" operator="equal">
       <formula>"Listed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="44" operator="equal">
       <formula>"Testing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="45" operator="equal">
       <formula>"NT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="46" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="47" operator="equal">
       <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="48" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26">
-    <cfRule type="cellIs" dxfId="213" priority="13" operator="equal">
-      <formula>"NT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="9" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="10" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="11" operator="equal">
       <formula>"Listed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="12" operator="equal">
       <formula>"Testing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="13" operator="equal">
+      <formula>"NT"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="208" priority="14" operator="equal">
       <formula>"NA"</formula>
@@ -61928,29 +62061,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:F47">
-    <cfRule type="cellIs" dxfId="205" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="17" operator="equal">
+      <formula>"Not Start"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="18" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="19" operator="equal">
       <formula>"Listed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="20" operator="equal">
       <formula>"Testing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="21" operator="equal">
       <formula>"NT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="22" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="23" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="24" operator="equal">
       <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="17" operator="equal">
-      <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:F70">
@@ -61963,20 +62096,20 @@
     <cfRule type="cellIs" dxfId="195" priority="35" operator="equal">
       <formula>"Listed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="36" operator="equal">
+      <formula>"Testing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="37" operator="equal">
       <formula>"NT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="38" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="39" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="40" operator="equal">
       <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="36" operator="equal">
-      <formula>"Testing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:F91">
@@ -61998,37 +62131,37 @@
     <cfRule type="cellIs" dxfId="184" priority="6" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="7" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="8" operator="equal">
       <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="7" operator="equal">
-      <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112:F112">
-    <cfRule type="cellIs" dxfId="181" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="25" operator="equal">
+      <formula>"Not Start"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="26" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="27" operator="equal">
       <formula>"Listed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="25" operator="equal">
-      <formula>"Not Start"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="28" operator="equal">
       <formula>"Testing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="29" operator="equal">
       <formula>"NT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="30" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="31" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="32" operator="equal">
       <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="26" operator="equal">
-      <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -62116,20 +62249,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Date xmlns="1492f413-4a9d-4f08-bc25-56483f53bae1" xsi:nil="true"/>
-    <TaxCatchAll xmlns="c00ac192-0740-45a5-a1c0-1c36b976cb30" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1492f413-4a9d-4f08-bc25-56483f53bae1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="1492f413-4a9d-4f08-bc25-56483f53bae1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010070E08B0E47AA8B499741AD1DB1EC77AB" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7cfd0e048161c59c1016edb924609b18">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1492f413-4a9d-4f08-bc25-56483f53bae1" xmlns:ns3="c00ac192-0740-45a5-a1c0-1c36b976cb30" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4be9abedd6b5902b79393e1f8268fb30" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="1492f413-4a9d-4f08-bc25-56483f53bae1"/>
@@ -62387,7 +62506,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -62396,19 +62515,21 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AABD7EB-8011-4DDF-BC09-C36096432370}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1492f413-4a9d-4f08-bc25-56483f53bae1"/>
-    <ds:schemaRef ds:uri="c00ac192-0740-45a5-a1c0-1c36b976cb30"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Date xmlns="1492f413-4a9d-4f08-bc25-56483f53bae1" xsi:nil="true"/>
+    <TaxCatchAll xmlns="c00ac192-0740-45a5-a1c0-1c36b976cb30" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1492f413-4a9d-4f08-bc25-56483f53bae1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="1492f413-4a9d-4f08-bc25-56483f53bae1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D2443D-0F49-4B6F-9079-15848BB5A314}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -62428,10 +62549,22 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AED60AF1-169F-4C58-8F0A-F563ECE5A156}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AABD7EB-8011-4DDF-BC09-C36096432370}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1492f413-4a9d-4f08-bc25-56483f53bae1"/>
+    <ds:schemaRef ds:uri="c00ac192-0740-45a5-a1c0-1c36b976cb30"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/JUL-2024/R-Car_Gen3_vsp2driver_PCL_v1.7.5_base.ja.en_old.xlsx
+++ b/JUL-2024/R-Car_Gen3_vsp2driver_PCL_v1.7.5_base.ja.en_old.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\long.trinh-tien\Documents\Linux-Lab\JUL-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CD7FC7-CB27-4C31-8FCE-9E42AE62A963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DCE81B-231A-4E60-919B-33C65D9321B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="833" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="833" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,9 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Liuwenyi - 个人视图" guid="{BAE6DCF4-0CDF-483F-8380-77ECB7F6E122}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="860" activeSheetId="5"/>
+    <customWorkbookView name="Lenovo User - 个人视面" guid="{E3D4B150-C2C3-4007-8958-8E1C2F71E443}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="860" activeSheetId="5"/>
     <customWorkbookView name="a - 个人视图" guid="{6F44B949-1803-4C1C-82AE-694A677CA00F}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="787" activeSheetId="5"/>
-    <customWorkbookView name="Lenovo User - 个人视面" guid="{E3D4B150-C2C3-4007-8958-8E1C2F71E443}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="860" activeSheetId="5"/>
-    <customWorkbookView name="Liuwenyi - 个人视图" guid="{BAE6DCF4-0CDF-483F-8380-77ECB7F6E122}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="860" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4596" uniqueCount="1989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4621" uniqueCount="1991">
   <si>
     <t>R-Car Gen3 VSP2 Integration Test Specification</t>
     <phoneticPr fontId="3"/>
@@ -15056,6 +15056,12 @@
   </si>
   <si>
     <t>OK H3</t>
+  </si>
+  <si>
+    <t>OK M3</t>
+  </si>
+  <si>
+    <t>5000s</t>
   </si>
 </sst>
 </file>
@@ -17671,6 +17677,51 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="57" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="59" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="60" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="61" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="34" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -17719,50 +17770,35 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="57" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="59" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="60" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="61" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -17776,34 +17812,46 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1">
@@ -17818,74 +17866,49 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="25" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="25" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="14" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="14" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="14" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="42" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="39" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="40" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="42" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="70" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -17900,51 +17923,22 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="72" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="25" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="39" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="40" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="42" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="14" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="14" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="42" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="25" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -17957,17 +17951,20 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -17980,9 +17977,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -18007,6 +18001,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -18633,13 +18639,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -18686,6 +18685,13 @@
       <fill>
         <patternFill patternType="none">
           <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
         </patternFill>
       </fill>
     </dxf>
@@ -19410,11 +19416,198 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.249977111117893"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
       <border>
@@ -19537,6 +19730,212 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.249977111117893"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
       <border>
         <left style="thin">
           <color rgb="FF000000"/>
@@ -19741,8 +20140,109 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF006100"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.249977111117893"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
       <border>
         <left style="thin">
           <color rgb="FF000000"/>
@@ -19765,6 +20265,49 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
       <border>
@@ -19904,30 +20447,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF0070C0"/>
       </font>
       <border>
@@ -19971,126 +20490,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.249977111117893"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -20098,399 +20497,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.249977111117893"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.249977111117893"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
       <border>
         <left style="thin">
           <color rgb="FF000000"/>
@@ -26919,139 +26925,139 @@
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="5"/>
-      <c r="C7" s="399" t="s">
+      <c r="C7" s="383" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="400"/>
-      <c r="E7" s="400"/>
-      <c r="F7" s="400"/>
-      <c r="G7" s="400"/>
-      <c r="H7" s="400"/>
-      <c r="I7" s="400"/>
-      <c r="J7" s="400"/>
-      <c r="K7" s="400"/>
-      <c r="L7" s="400"/>
-      <c r="M7" s="401"/>
+      <c r="D7" s="384"/>
+      <c r="E7" s="384"/>
+      <c r="F7" s="384"/>
+      <c r="G7" s="384"/>
+      <c r="H7" s="384"/>
+      <c r="I7" s="384"/>
+      <c r="J7" s="384"/>
+      <c r="K7" s="384"/>
+      <c r="L7" s="384"/>
+      <c r="M7" s="385"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="5"/>
-      <c r="C8" s="402"/>
-      <c r="D8" s="403"/>
-      <c r="E8" s="403"/>
-      <c r="F8" s="403"/>
-      <c r="G8" s="403"/>
-      <c r="H8" s="403"/>
-      <c r="I8" s="403"/>
-      <c r="J8" s="403"/>
-      <c r="K8" s="403"/>
-      <c r="L8" s="403"/>
-      <c r="M8" s="404"/>
+      <c r="C8" s="386"/>
+      <c r="D8" s="387"/>
+      <c r="E8" s="387"/>
+      <c r="F8" s="387"/>
+      <c r="G8" s="387"/>
+      <c r="H8" s="387"/>
+      <c r="I8" s="387"/>
+      <c r="J8" s="387"/>
+      <c r="K8" s="387"/>
+      <c r="L8" s="387"/>
+      <c r="M8" s="388"/>
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="5"/>
-      <c r="C9" s="402"/>
-      <c r="D9" s="403"/>
-      <c r="E9" s="403"/>
-      <c r="F9" s="403"/>
-      <c r="G9" s="403"/>
-      <c r="H9" s="403"/>
-      <c r="I9" s="403"/>
-      <c r="J9" s="403"/>
-      <c r="K9" s="403"/>
-      <c r="L9" s="403"/>
-      <c r="M9" s="404"/>
+      <c r="C9" s="386"/>
+      <c r="D9" s="387"/>
+      <c r="E9" s="387"/>
+      <c r="F9" s="387"/>
+      <c r="G9" s="387"/>
+      <c r="H9" s="387"/>
+      <c r="I9" s="387"/>
+      <c r="J9" s="387"/>
+      <c r="K9" s="387"/>
+      <c r="L9" s="387"/>
+      <c r="M9" s="388"/>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="5"/>
-      <c r="C10" s="402"/>
-      <c r="D10" s="403"/>
-      <c r="E10" s="403"/>
-      <c r="F10" s="403"/>
-      <c r="G10" s="403"/>
-      <c r="H10" s="403"/>
-      <c r="I10" s="403"/>
-      <c r="J10" s="403"/>
-      <c r="K10" s="403"/>
-      <c r="L10" s="403"/>
-      <c r="M10" s="404"/>
+      <c r="C10" s="386"/>
+      <c r="D10" s="387"/>
+      <c r="E10" s="387"/>
+      <c r="F10" s="387"/>
+      <c r="G10" s="387"/>
+      <c r="H10" s="387"/>
+      <c r="I10" s="387"/>
+      <c r="J10" s="387"/>
+      <c r="K10" s="387"/>
+      <c r="L10" s="387"/>
+      <c r="M10" s="388"/>
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="5"/>
-      <c r="C11" s="402"/>
-      <c r="D11" s="403"/>
-      <c r="E11" s="403"/>
-      <c r="F11" s="403"/>
-      <c r="G11" s="403"/>
-      <c r="H11" s="403"/>
-      <c r="I11" s="403"/>
-      <c r="J11" s="403"/>
-      <c r="K11" s="403"/>
-      <c r="L11" s="403"/>
-      <c r="M11" s="404"/>
+      <c r="C11" s="386"/>
+      <c r="D11" s="387"/>
+      <c r="E11" s="387"/>
+      <c r="F11" s="387"/>
+      <c r="G11" s="387"/>
+      <c r="H11" s="387"/>
+      <c r="I11" s="387"/>
+      <c r="J11" s="387"/>
+      <c r="K11" s="387"/>
+      <c r="L11" s="387"/>
+      <c r="M11" s="388"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="5"/>
-      <c r="C12" s="402"/>
-      <c r="D12" s="403"/>
-      <c r="E12" s="403"/>
-      <c r="F12" s="403"/>
-      <c r="G12" s="403"/>
-      <c r="H12" s="403"/>
-      <c r="I12" s="403"/>
-      <c r="J12" s="403"/>
-      <c r="K12" s="403"/>
-      <c r="L12" s="403"/>
-      <c r="M12" s="404"/>
+      <c r="C12" s="386"/>
+      <c r="D12" s="387"/>
+      <c r="E12" s="387"/>
+      <c r="F12" s="387"/>
+      <c r="G12" s="387"/>
+      <c r="H12" s="387"/>
+      <c r="I12" s="387"/>
+      <c r="J12" s="387"/>
+      <c r="K12" s="387"/>
+      <c r="L12" s="387"/>
+      <c r="M12" s="388"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="5"/>
-      <c r="C13" s="402"/>
-      <c r="D13" s="403"/>
-      <c r="E13" s="403"/>
-      <c r="F13" s="403"/>
-      <c r="G13" s="403"/>
-      <c r="H13" s="403"/>
-      <c r="I13" s="403"/>
-      <c r="J13" s="403"/>
-      <c r="K13" s="403"/>
-      <c r="L13" s="403"/>
-      <c r="M13" s="404"/>
+      <c r="C13" s="386"/>
+      <c r="D13" s="387"/>
+      <c r="E13" s="387"/>
+      <c r="F13" s="387"/>
+      <c r="G13" s="387"/>
+      <c r="H13" s="387"/>
+      <c r="I13" s="387"/>
+      <c r="J13" s="387"/>
+      <c r="K13" s="387"/>
+      <c r="L13" s="387"/>
+      <c r="M13" s="388"/>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="2:14">
       <c r="B14" s="5"/>
-      <c r="C14" s="402"/>
-      <c r="D14" s="403"/>
-      <c r="E14" s="403"/>
-      <c r="F14" s="403"/>
-      <c r="G14" s="403"/>
-      <c r="H14" s="403"/>
-      <c r="I14" s="403"/>
-      <c r="J14" s="403"/>
-      <c r="K14" s="403"/>
-      <c r="L14" s="403"/>
-      <c r="M14" s="404"/>
+      <c r="C14" s="386"/>
+      <c r="D14" s="387"/>
+      <c r="E14" s="387"/>
+      <c r="F14" s="387"/>
+      <c r="G14" s="387"/>
+      <c r="H14" s="387"/>
+      <c r="I14" s="387"/>
+      <c r="J14" s="387"/>
+      <c r="K14" s="387"/>
+      <c r="L14" s="387"/>
+      <c r="M14" s="388"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="2:14" ht="18" thickBot="1">
       <c r="B15" s="5"/>
-      <c r="C15" s="405"/>
-      <c r="D15" s="406"/>
-      <c r="E15" s="406"/>
-      <c r="F15" s="406"/>
-      <c r="G15" s="406"/>
-      <c r="H15" s="406"/>
-      <c r="I15" s="406"/>
-      <c r="J15" s="406"/>
-      <c r="K15" s="406"/>
-      <c r="L15" s="406"/>
-      <c r="M15" s="407"/>
+      <c r="C15" s="389"/>
+      <c r="D15" s="390"/>
+      <c r="E15" s="390"/>
+      <c r="F15" s="390"/>
+      <c r="G15" s="390"/>
+      <c r="H15" s="390"/>
+      <c r="I15" s="390"/>
+      <c r="J15" s="390"/>
+      <c r="K15" s="390"/>
+      <c r="L15" s="390"/>
+      <c r="M15" s="391"/>
       <c r="N15" s="6"/>
     </row>
     <row r="16" spans="2:14">
@@ -27100,26 +27106,26 @@
     </row>
     <row r="21" spans="2:221" ht="17.5" customHeight="1">
       <c r="B21" s="5"/>
-      <c r="E21" s="413" t="s">
+      <c r="E21" s="397" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="413"/>
-      <c r="G21" s="413"/>
-      <c r="H21" s="413"/>
-      <c r="I21" s="413"/>
-      <c r="J21" s="413"/>
-      <c r="K21" s="413"/>
+      <c r="F21" s="397"/>
+      <c r="G21" s="397"/>
+      <c r="H21" s="397"/>
+      <c r="I21" s="397"/>
+      <c r="J21" s="397"/>
+      <c r="K21" s="397"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="2:221" ht="17.5" customHeight="1">
       <c r="B22" s="5"/>
-      <c r="E22" s="413"/>
-      <c r="F22" s="413"/>
-      <c r="G22" s="413"/>
-      <c r="H22" s="413"/>
-      <c r="I22" s="413"/>
-      <c r="J22" s="413"/>
-      <c r="K22" s="413"/>
+      <c r="E22" s="397"/>
+      <c r="F22" s="397"/>
+      <c r="G22" s="397"/>
+      <c r="H22" s="397"/>
+      <c r="I22" s="397"/>
+      <c r="J22" s="397"/>
+      <c r="K22" s="397"/>
       <c r="N22" s="6"/>
       <c r="HM22" s="1" t="s">
         <v>7</v>
@@ -27206,73 +27212,73 @@
       <c r="N42" s="6"/>
     </row>
     <row r="43" spans="2:14" ht="15" customHeight="1">
-      <c r="B43" s="408" t="s">
+      <c r="B43" s="392" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="409"/>
-      <c r="D43" s="409"/>
-      <c r="E43" s="409"/>
-      <c r="F43" s="410"/>
-      <c r="G43" s="411" t="s">
+      <c r="C43" s="393"/>
+      <c r="D43" s="393"/>
+      <c r="E43" s="393"/>
+      <c r="F43" s="394"/>
+      <c r="G43" s="395" t="s">
         <v>9</v>
       </c>
-      <c r="H43" s="410"/>
-      <c r="I43" s="411" t="s">
+      <c r="H43" s="394"/>
+      <c r="I43" s="395" t="s">
         <v>10</v>
       </c>
-      <c r="J43" s="410"/>
-      <c r="K43" s="411" t="s">
+      <c r="J43" s="394"/>
+      <c r="K43" s="395" t="s">
         <v>11</v>
       </c>
-      <c r="L43" s="410"/>
-      <c r="M43" s="411" t="s">
+      <c r="L43" s="394"/>
+      <c r="M43" s="395" t="s">
         <v>12</v>
       </c>
-      <c r="N43" s="412"/>
+      <c r="N43" s="396"/>
     </row>
     <row r="44" spans="2:14" ht="23.25" customHeight="1">
-      <c r="B44" s="387" t="s">
+      <c r="B44" s="402" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="388"/>
-      <c r="D44" s="388"/>
-      <c r="E44" s="388"/>
-      <c r="F44" s="389"/>
-      <c r="G44" s="393" t="s">
+      <c r="C44" s="403"/>
+      <c r="D44" s="403"/>
+      <c r="E44" s="403"/>
+      <c r="F44" s="404"/>
+      <c r="G44" s="408" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="394"/>
-      <c r="I44" s="393" t="s">
+      <c r="H44" s="409"/>
+      <c r="I44" s="408" t="s">
         <v>15</v>
       </c>
-      <c r="J44" s="394"/>
-      <c r="K44" s="397" t="s">
+      <c r="J44" s="409"/>
+      <c r="K44" s="412" t="s">
         <v>16</v>
       </c>
-      <c r="L44" s="389"/>
-      <c r="M44" s="383">
+      <c r="L44" s="404"/>
+      <c r="M44" s="398">
         <v>44307</v>
       </c>
-      <c r="N44" s="384"/>
+      <c r="N44" s="399"/>
     </row>
     <row r="45" spans="2:14" ht="20.149999999999999" customHeight="1" thickBot="1">
-      <c r="B45" s="390"/>
-      <c r="C45" s="391"/>
-      <c r="D45" s="391"/>
-      <c r="E45" s="391"/>
-      <c r="F45" s="392"/>
-      <c r="G45" s="395"/>
-      <c r="H45" s="396"/>
-      <c r="I45" s="395"/>
-      <c r="J45" s="396"/>
-      <c r="K45" s="398"/>
-      <c r="L45" s="392"/>
-      <c r="M45" s="385"/>
-      <c r="N45" s="386"/>
+      <c r="B45" s="405"/>
+      <c r="C45" s="406"/>
+      <c r="D45" s="406"/>
+      <c r="E45" s="406"/>
+      <c r="F45" s="407"/>
+      <c r="G45" s="410"/>
+      <c r="H45" s="411"/>
+      <c r="I45" s="410"/>
+      <c r="J45" s="411"/>
+      <c r="K45" s="413"/>
+      <c r="L45" s="407"/>
+      <c r="M45" s="400"/>
+      <c r="N45" s="401"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6F44B949-1803-4C1C-82AE-694A677CA00F}" scale="85">
+    <customSheetView guid="{BAE6DCF4-0CDF-483F-8380-77ECB7F6E122}" scale="85" showRuler="0">
       <selection activeCell="I55" sqref="I55"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -27284,7 +27290,7 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{BAE6DCF4-0CDF-483F-8380-77ECB7F6E122}" scale="85" showRuler="0">
+    <customSheetView guid="{6F44B949-1803-4C1C-82AE-694A677CA00F}" scale="85">
       <selection activeCell="I55" sqref="I55"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -27292,6 +27298,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="12">
+    <mergeCell ref="M44:N45"/>
+    <mergeCell ref="B44:F45"/>
+    <mergeCell ref="G44:H45"/>
+    <mergeCell ref="I44:J45"/>
+    <mergeCell ref="K44:L45"/>
     <mergeCell ref="C7:M15"/>
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="G43:H43"/>
@@ -27299,11 +27310,6 @@
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="M43:N43"/>
     <mergeCell ref="E21:K22"/>
-    <mergeCell ref="M44:N45"/>
-    <mergeCell ref="B44:F45"/>
-    <mergeCell ref="G44:H45"/>
-    <mergeCell ref="I44:J45"/>
-    <mergeCell ref="K44:L45"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -30336,7 +30342,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="63" spans="1:31" s="62" customFormat="1" ht="105">
+    <row r="63" spans="1:31" s="62" customFormat="1" ht="122.5">
       <c r="A63" s="53"/>
       <c r="B63" s="54">
         <f t="shared" si="1"/>
@@ -30384,7 +30390,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="64" spans="1:31" s="62" customFormat="1" ht="105">
+    <row r="64" spans="1:31" s="62" customFormat="1" ht="122.5">
       <c r="A64" s="53"/>
       <c r="B64" s="54">
         <f t="shared" si="1"/>
@@ -30432,7 +30438,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="65" spans="1:31" s="62" customFormat="1" ht="105">
+    <row r="65" spans="1:31" s="62" customFormat="1" ht="122.5">
       <c r="A65" s="53"/>
       <c r="B65" s="54">
         <f t="shared" si="1"/>
@@ -30480,7 +30486,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="66" spans="1:31" s="62" customFormat="1" ht="105">
+    <row r="66" spans="1:31" s="62" customFormat="1" ht="122.5">
       <c r="A66" s="53"/>
       <c r="B66" s="54">
         <f t="shared" si="1"/>
@@ -32225,7 +32231,7 @@
       <c r="AD6" s="60"/>
       <c r="AE6" s="91"/>
     </row>
-    <row r="7" spans="2:31" ht="52.5">
+    <row r="7" spans="2:31" ht="35">
       <c r="B7" s="91">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -32270,7 +32276,7 @@
       <c r="AD7" s="60"/>
       <c r="AE7" s="91"/>
     </row>
-    <row r="8" spans="2:31" ht="52.5">
+    <row r="8" spans="2:31" ht="35">
       <c r="B8" s="91">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -32512,7 +32518,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="87.5">
+    <row r="4" spans="2:16" ht="105">
       <c r="B4" s="95">
         <f>ROW()-3</f>
         <v>1</v>
@@ -35847,7 +35853,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="37" spans="2:31" ht="52.5">
+    <row r="37" spans="2:31" ht="35">
       <c r="B37" s="105">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -37143,27 +37149,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5:P19">
-    <cfRule type="cellIs" dxfId="78" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="expression" dxfId="78" priority="58" stopIfTrue="1">
+      <formula>#REF!="NT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="57" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="58" stopIfTrue="1">
-      <formula>#REF!="NT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5:U19">
-    <cfRule type="cellIs" dxfId="76" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="expression" dxfId="76" priority="30" stopIfTrue="1">
+      <formula>#REF!="NT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="29" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="30" stopIfTrue="1">
-      <formula>#REF!="NT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5:Z19">
-    <cfRule type="cellIs" dxfId="74" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="expression" dxfId="74" priority="2" stopIfTrue="1">
+      <formula>#REF!="NT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="1" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="2" stopIfTrue="1">
-      <formula>#REF!="NT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5:AE59">
@@ -43260,7 +43266,7 @@
       <c r="S66" s="60"/>
       <c r="T66" s="91"/>
     </row>
-    <row r="67" spans="2:20" ht="70">
+    <row r="67" spans="2:20" ht="52.5">
       <c r="B67" s="91">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -43434,7 +43440,7 @@
       <c r="S70" s="60"/>
       <c r="T70" s="91"/>
     </row>
-    <row r="71" spans="2:20" ht="70">
+    <row r="71" spans="2:20" ht="52.5">
       <c r="B71" s="91">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -43606,7 +43612,7 @@
       <c r="S74" s="60"/>
       <c r="T74" s="91"/>
     </row>
-    <row r="75" spans="2:20" ht="70">
+    <row r="75" spans="2:20" ht="52.5">
       <c r="B75" s="91">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -43735,7 +43741,7 @@
       <c r="S77" s="60"/>
       <c r="T77" s="91"/>
     </row>
-    <row r="78" spans="2:20" ht="70">
+    <row r="78" spans="2:20" ht="52.5">
       <c r="B78" s="91">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -43782,7 +43788,7 @@
       <c r="S78" s="60"/>
       <c r="T78" s="91"/>
     </row>
-    <row r="79" spans="2:20" ht="70">
+    <row r="79" spans="2:20" ht="52.5">
       <c r="B79" s="91">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -43825,7 +43831,7 @@
       <c r="S79" s="60"/>
       <c r="T79" s="91"/>
     </row>
-    <row r="80" spans="2:20" ht="70">
+    <row r="80" spans="2:20" ht="52.5">
       <c r="B80" s="91">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -43868,7 +43874,7 @@
       <c r="S80" s="60"/>
       <c r="T80" s="91"/>
     </row>
-    <row r="81" spans="2:20" ht="70">
+    <row r="81" spans="2:20" ht="52.5">
       <c r="B81" s="91">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -43911,7 +43917,7 @@
       <c r="S81" s="60"/>
       <c r="T81" s="91"/>
     </row>
-    <row r="82" spans="2:20" ht="70">
+    <row r="82" spans="2:20" ht="52.5">
       <c r="B82" s="91">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -43954,7 +43960,7 @@
       <c r="S82" s="60"/>
       <c r="T82" s="91"/>
     </row>
-    <row r="83" spans="2:20" ht="70">
+    <row r="83" spans="2:20" ht="52.5">
       <c r="B83" s="91">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -43997,7 +44003,7 @@
       <c r="S83" s="60"/>
       <c r="T83" s="91"/>
     </row>
-    <row r="84" spans="2:20" ht="70">
+    <row r="84" spans="2:20" ht="52.5">
       <c r="B84" s="91">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -44040,7 +44046,7 @@
       <c r="S84" s="60"/>
       <c r="T84" s="91"/>
     </row>
-    <row r="85" spans="2:20" ht="70">
+    <row r="85" spans="2:20" ht="52.5">
       <c r="B85" s="91">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -44085,7 +44091,7 @@
       <c r="S85" s="60"/>
       <c r="T85" s="91"/>
     </row>
-    <row r="86" spans="2:20" ht="70">
+    <row r="86" spans="2:20" ht="52.5">
       <c r="B86" s="91">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -44128,7 +44134,7 @@
       <c r="S86" s="60"/>
       <c r="T86" s="91"/>
     </row>
-    <row r="87" spans="2:20" ht="70">
+    <row r="87" spans="2:20" ht="52.5">
       <c r="B87" s="91">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -44171,7 +44177,7 @@
       <c r="S87" s="60"/>
       <c r="T87" s="91"/>
     </row>
-    <row r="88" spans="2:20" ht="70">
+    <row r="88" spans="2:20" ht="52.5">
       <c r="B88" s="91">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -44214,7 +44220,7 @@
       <c r="S88" s="60"/>
       <c r="T88" s="91"/>
     </row>
-    <row r="89" spans="2:20" ht="70">
+    <row r="89" spans="2:20" ht="52.5">
       <c r="B89" s="91">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -44257,7 +44263,7 @@
       <c r="S89" s="60"/>
       <c r="T89" s="91"/>
     </row>
-    <row r="90" spans="2:20" ht="70">
+    <row r="90" spans="2:20" ht="52.5">
       <c r="B90" s="91">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -44300,7 +44306,7 @@
       <c r="S90" s="60"/>
       <c r="T90" s="91"/>
     </row>
-    <row r="91" spans="2:20" ht="70">
+    <row r="91" spans="2:20" ht="52.5">
       <c r="B91" s="91">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -44723,7 +44729,7 @@
       <c r="R9" s="60"/>
       <c r="S9" s="91"/>
     </row>
-    <row r="10" spans="2:19" ht="87.5">
+    <row r="10" spans="2:19" ht="70">
       <c r="B10" s="91">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -44801,7 +44807,7 @@
       <c r="R11" s="60"/>
       <c r="S11" s="91"/>
     </row>
-    <row r="12" spans="2:19" ht="87.5">
+    <row r="12" spans="2:19" ht="70">
       <c r="B12" s="91">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -45037,7 +45043,7 @@
       <c r="R17" s="60"/>
       <c r="S17" s="91"/>
     </row>
-    <row r="18" spans="2:19" ht="87.5">
+    <row r="18" spans="2:19" ht="70">
       <c r="B18" s="91">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -45115,7 +45121,7 @@
       <c r="R19" s="60"/>
       <c r="S19" s="91"/>
     </row>
-    <row r="20" spans="2:19" ht="87.5">
+    <row r="20" spans="2:19" ht="70">
       <c r="B20" s="91">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -45275,7 +45281,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="87.5">
+    <row r="24" spans="2:19" ht="70">
       <c r="B24" s="91">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -45353,7 +45359,7 @@
       <c r="R25" s="60"/>
       <c r="S25" s="91"/>
     </row>
-    <row r="26" spans="2:19" ht="87.5">
+    <row r="26" spans="2:19" ht="70">
       <c r="B26" s="91">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -45552,7 +45558,7 @@
       <c r="R30" s="60"/>
       <c r="S30" s="91"/>
     </row>
-    <row r="31" spans="2:19" ht="105">
+    <row r="31" spans="2:19" ht="87.5">
       <c r="B31" s="91">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -45630,7 +45636,7 @@
       <c r="R32" s="60"/>
       <c r="S32" s="91"/>
     </row>
-    <row r="33" spans="2:19" ht="105">
+    <row r="33" spans="2:19" ht="87.5">
       <c r="B33" s="91">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -45708,7 +45714,7 @@
       <c r="R34" s="60"/>
       <c r="S34" s="91"/>
     </row>
-    <row r="35" spans="2:19" ht="105">
+    <row r="35" spans="2:19" ht="87.5">
       <c r="B35" s="91">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -45786,7 +45792,7 @@
       <c r="R36" s="60"/>
       <c r="S36" s="91"/>
     </row>
-    <row r="37" spans="2:19" ht="105">
+    <row r="37" spans="2:19" ht="87.5">
       <c r="B37" s="91">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -45864,7 +45870,7 @@
       <c r="R38" s="60"/>
       <c r="S38" s="91"/>
     </row>
-    <row r="39" spans="2:19" ht="87.5">
+    <row r="39" spans="2:19" ht="70">
       <c r="B39" s="91">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -45942,7 +45948,7 @@
       <c r="R40" s="60"/>
       <c r="S40" s="91"/>
     </row>
-    <row r="41" spans="2:19" ht="87.5">
+    <row r="41" spans="2:19" ht="70">
       <c r="B41" s="91">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -46061,7 +46067,7 @@
       <c r="R43" s="60"/>
       <c r="S43" s="91"/>
     </row>
-    <row r="44" spans="2:19" ht="105">
+    <row r="44" spans="2:19" ht="87.5">
       <c r="B44" s="91">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -46139,7 +46145,7 @@
       <c r="R45" s="60"/>
       <c r="S45" s="91"/>
     </row>
-    <row r="46" spans="2:19" ht="87.5">
+    <row r="46" spans="2:19" ht="70">
       <c r="B46" s="91">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -46217,7 +46223,7 @@
       <c r="R47" s="60"/>
       <c r="S47" s="91"/>
     </row>
-    <row r="48" spans="2:19" ht="87.5">
+    <row r="48" spans="2:19" ht="70">
       <c r="B48" s="91">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -46336,7 +46342,7 @@
       <c r="R50" s="60"/>
       <c r="S50" s="91"/>
     </row>
-    <row r="51" spans="2:19" ht="105">
+    <row r="51" spans="2:19" ht="87.5">
       <c r="B51" s="91">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -46414,7 +46420,7 @@
       <c r="R52" s="60"/>
       <c r="S52" s="91"/>
     </row>
-    <row r="53" spans="2:19" ht="87.5">
+    <row r="53" spans="2:19" ht="70">
       <c r="B53" s="91">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -46492,7 +46498,7 @@
       <c r="R54" s="60"/>
       <c r="S54" s="91"/>
     </row>
-    <row r="55" spans="2:19" ht="87.5">
+    <row r="55" spans="2:19" ht="70">
       <c r="B55" s="91">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -46693,7 +46699,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="60" spans="2:19" ht="87.5">
+    <row r="60" spans="2:19" ht="70">
       <c r="B60" s="91">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -46888,7 +46894,7 @@
       <c r="R64" s="60"/>
       <c r="S64" s="91"/>
     </row>
-    <row r="65" spans="2:19" ht="87.5">
+    <row r="65" spans="2:19" ht="70">
       <c r="B65" s="91">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -47085,7 +47091,7 @@
       <c r="R69" s="60"/>
       <c r="S69" s="91"/>
     </row>
-    <row r="70" spans="2:19" ht="87.5">
+    <row r="70" spans="2:19" ht="70">
       <c r="B70" s="91">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -47280,7 +47286,7 @@
       <c r="R74" s="60"/>
       <c r="S74" s="91"/>
     </row>
-    <row r="75" spans="2:19" ht="87.5">
+    <row r="75" spans="2:19" ht="70">
       <c r="B75" s="91">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -47908,7 +47914,7 @@
       <c r="R90" s="60"/>
       <c r="S90" s="91"/>
     </row>
-    <row r="91" spans="2:19" ht="87.5">
+    <row r="91" spans="2:19" ht="70">
       <c r="B91" s="91">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -48232,7 +48238,7 @@
       <c r="R98" s="60"/>
       <c r="S98" s="91"/>
     </row>
-    <row r="99" spans="2:19" ht="87.5">
+    <row r="99" spans="2:19" ht="70">
       <c r="B99" s="91">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -48552,7 +48558,7 @@
       <c r="R106" s="60"/>
       <c r="S106" s="91"/>
     </row>
-    <row r="107" spans="2:19" ht="87.5">
+    <row r="107" spans="2:19" ht="70">
       <c r="B107" s="91">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -48872,7 +48878,7 @@
       <c r="R114" s="60"/>
       <c r="S114" s="91"/>
     </row>
-    <row r="115" spans="2:19" ht="87.5">
+    <row r="115" spans="2:19" ht="70">
       <c r="B115" s="91">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -49192,7 +49198,7 @@
       <c r="R122" s="60"/>
       <c r="S122" s="91"/>
     </row>
-    <row r="123" spans="2:19" ht="87.5">
+    <row r="123" spans="2:19" ht="70">
       <c r="B123" s="91">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -49512,7 +49518,7 @@
       <c r="R130" s="60"/>
       <c r="S130" s="91"/>
     </row>
-    <row r="131" spans="2:19" ht="87.5">
+    <row r="131" spans="2:19" ht="70">
       <c r="B131" s="91">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -49832,7 +49838,7 @@
       <c r="R138" s="60"/>
       <c r="S138" s="91"/>
     </row>
-    <row r="139" spans="2:19" ht="87.5">
+    <row r="139" spans="2:19" ht="70">
       <c r="B139" s="91">
         <f t="shared" si="3"/>
         <v>136</v>
@@ -50234,7 +50240,7 @@
       <c r="R148" s="60"/>
       <c r="S148" s="91"/>
     </row>
-    <row r="149" spans="2:19" ht="87.5">
+    <row r="149" spans="2:19" ht="70">
       <c r="B149" s="91">
         <f t="shared" si="3"/>
         <v>146</v>
@@ -51039,7 +51045,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="157.5">
+    <row r="12" spans="2:16" ht="140">
       <c r="B12" s="214">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -51074,7 +51080,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="157.5">
+    <row r="13" spans="2:16" ht="140">
       <c r="B13" s="214">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -54332,84 +54338,84 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="18" thickBot="1">
-      <c r="B4" s="432" t="s">
+      <c r="B4" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="433"/>
-      <c r="D4" s="432" t="s">
+      <c r="C4" s="415"/>
+      <c r="D4" s="414" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="433"/>
-      <c r="F4" s="422" t="s">
+      <c r="E4" s="415"/>
+      <c r="F4" s="428" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="423"/>
-      <c r="H4" s="423"/>
-      <c r="I4" s="424"/>
+      <c r="G4" s="429"/>
+      <c r="H4" s="429"/>
+      <c r="I4" s="438"/>
     </row>
     <row r="5" spans="2:9" ht="18" thickTop="1">
-      <c r="B5" s="436" t="s">
+      <c r="B5" s="434" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="415"/>
-      <c r="D5" s="414" t="s">
+      <c r="C5" s="425"/>
+      <c r="D5" s="424" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="415"/>
-      <c r="F5" s="425" t="s">
+      <c r="E5" s="425"/>
+      <c r="F5" s="431" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="426"/>
-      <c r="H5" s="426"/>
-      <c r="I5" s="427"/>
+      <c r="G5" s="439"/>
+      <c r="H5" s="439"/>
+      <c r="I5" s="440"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="436" t="s">
+      <c r="B6" s="434" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="415"/>
-      <c r="D6" s="414" t="s">
+      <c r="C6" s="425"/>
+      <c r="D6" s="424" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="415"/>
-      <c r="F6" s="418" t="s">
+      <c r="E6" s="425"/>
+      <c r="F6" s="419" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="419"/>
-      <c r="H6" s="419"/>
-      <c r="I6" s="421"/>
+      <c r="G6" s="420"/>
+      <c r="H6" s="420"/>
+      <c r="I6" s="441"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="436" t="s">
+      <c r="B7" s="434" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="415"/>
-      <c r="D7" s="414" t="s">
+      <c r="C7" s="425"/>
+      <c r="D7" s="424" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="415"/>
-      <c r="F7" s="418" t="s">
+      <c r="E7" s="425"/>
+      <c r="F7" s="419" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="419"/>
-      <c r="H7" s="419"/>
-      <c r="I7" s="421"/>
+      <c r="G7" s="420"/>
+      <c r="H7" s="420"/>
+      <c r="I7" s="441"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="436" t="s">
+      <c r="B8" s="434" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="415"/>
-      <c r="D8" s="414" t="s">
+      <c r="C8" s="425"/>
+      <c r="D8" s="424" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="415"/>
-      <c r="F8" s="418" t="s">
+      <c r="E8" s="425"/>
+      <c r="F8" s="419" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="419"/>
-      <c r="H8" s="419"/>
-      <c r="I8" s="421"/>
+      <c r="G8" s="420"/>
+      <c r="H8" s="420"/>
+      <c r="I8" s="441"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="25" t="s">
@@ -54417,147 +54423,147 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="18" thickBot="1">
-      <c r="B11" s="432" t="s">
+      <c r="B11" s="414" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="433"/>
-      <c r="D11" s="432" t="s">
+      <c r="C11" s="415"/>
+      <c r="D11" s="414" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="433"/>
-      <c r="F11" s="422" t="s">
+      <c r="E11" s="415"/>
+      <c r="F11" s="428" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="423"/>
-      <c r="H11" s="423"/>
-      <c r="I11" s="424"/>
+      <c r="G11" s="429"/>
+      <c r="H11" s="429"/>
+      <c r="I11" s="438"/>
     </row>
     <row r="12" spans="2:9" ht="18" thickTop="1">
-      <c r="B12" s="434" t="s">
+      <c r="B12" s="446" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="435"/>
-      <c r="D12" s="414" t="s">
+      <c r="C12" s="447"/>
+      <c r="D12" s="424" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="415"/>
-      <c r="F12" s="425" t="s">
+      <c r="E12" s="425"/>
+      <c r="F12" s="431" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="426"/>
-      <c r="H12" s="426"/>
-      <c r="I12" s="427"/>
+      <c r="G12" s="439"/>
+      <c r="H12" s="439"/>
+      <c r="I12" s="440"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="441" t="s">
+      <c r="B13" s="422" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="442"/>
-      <c r="D13" s="418" t="s">
+      <c r="C13" s="423"/>
+      <c r="D13" s="419" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="420"/>
-      <c r="F13" s="418" t="s">
+      <c r="E13" s="421"/>
+      <c r="F13" s="419" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="419"/>
-      <c r="H13" s="419"/>
-      <c r="I13" s="421"/>
+      <c r="G13" s="420"/>
+      <c r="H13" s="420"/>
+      <c r="I13" s="441"/>
     </row>
     <row r="15" spans="2:9" ht="18" thickBot="1">
-      <c r="B15" s="432" t="s">
+      <c r="B15" s="414" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="433"/>
-      <c r="D15" s="432" t="s">
+      <c r="C15" s="415"/>
+      <c r="D15" s="414" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="433"/>
-      <c r="F15" s="422" t="s">
+      <c r="E15" s="415"/>
+      <c r="F15" s="428" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="423"/>
-      <c r="H15" s="443"/>
+      <c r="G15" s="429"/>
+      <c r="H15" s="430"/>
     </row>
     <row r="16" spans="2:9" ht="18" thickTop="1">
-      <c r="B16" s="428" t="s">
+      <c r="B16" s="442" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="429"/>
-      <c r="D16" s="430" t="s">
+      <c r="C16" s="443"/>
+      <c r="D16" s="444" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="431"/>
-      <c r="F16" s="418"/>
-      <c r="G16" s="419"/>
-      <c r="H16" s="420"/>
+      <c r="E16" s="445"/>
+      <c r="F16" s="419"/>
+      <c r="G16" s="420"/>
+      <c r="H16" s="421"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="414" t="s">
+      <c r="B17" s="424" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="415"/>
-      <c r="D17" s="416" t="s">
+      <c r="C17" s="425"/>
+      <c r="D17" s="426" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="417"/>
-      <c r="F17" s="418"/>
-      <c r="G17" s="419"/>
-      <c r="H17" s="420"/>
+      <c r="E17" s="427"/>
+      <c r="F17" s="419"/>
+      <c r="G17" s="420"/>
+      <c r="H17" s="421"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="414" t="s">
+      <c r="B18" s="424" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="415"/>
-      <c r="D18" s="416" t="s">
+      <c r="C18" s="425"/>
+      <c r="D18" s="426" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="417"/>
-      <c r="F18" s="418"/>
-      <c r="G18" s="419"/>
-      <c r="H18" s="420"/>
+      <c r="E18" s="427"/>
+      <c r="F18" s="419"/>
+      <c r="G18" s="420"/>
+      <c r="H18" s="421"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="414" t="s">
+      <c r="B19" s="424" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="415"/>
-      <c r="D19" s="416" t="s">
+      <c r="C19" s="425"/>
+      <c r="D19" s="426" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="417"/>
-      <c r="F19" s="418" t="s">
+      <c r="E19" s="427"/>
+      <c r="F19" s="419" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="419"/>
-      <c r="H19" s="420"/>
+      <c r="G19" s="420"/>
+      <c r="H19" s="421"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="414" t="s">
+      <c r="B20" s="424" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="415"/>
-      <c r="D20" s="416" t="s">
+      <c r="C20" s="425"/>
+      <c r="D20" s="426" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="417"/>
-      <c r="F20" s="418"/>
-      <c r="G20" s="419"/>
-      <c r="H20" s="420"/>
+      <c r="E20" s="427"/>
+      <c r="F20" s="419"/>
+      <c r="G20" s="420"/>
+      <c r="H20" s="421"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="414" t="s">
+      <c r="B21" s="424" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="415"/>
-      <c r="D21" s="416" t="s">
+      <c r="C21" s="425"/>
+      <c r="D21" s="426" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="417"/>
-      <c r="F21" s="418"/>
-      <c r="G21" s="419"/>
-      <c r="H21" s="420"/>
+      <c r="E21" s="427"/>
+      <c r="F21" s="419"/>
+      <c r="G21" s="420"/>
+      <c r="H21" s="421"/>
     </row>
     <row r="22" spans="2:8">
       <c r="D22" s="300"/>
@@ -54567,568 +54573,568 @@
       <c r="H22" s="62"/>
     </row>
     <row r="23" spans="2:8" ht="18" thickBot="1">
-      <c r="B23" s="432" t="s">
+      <c r="B23" s="414" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="433"/>
-      <c r="D23" s="432" t="s">
+      <c r="C23" s="415"/>
+      <c r="D23" s="414" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="433"/>
-      <c r="F23" s="422" t="s">
+      <c r="E23" s="415"/>
+      <c r="F23" s="428" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="423"/>
-      <c r="H23" s="443"/>
+      <c r="G23" s="429"/>
+      <c r="H23" s="430"/>
     </row>
     <row r="24" spans="2:8" ht="18" thickTop="1">
-      <c r="B24" s="446" t="s">
+      <c r="B24" s="416" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="447"/>
-      <c r="D24" s="446" t="s">
+      <c r="C24" s="417"/>
+      <c r="D24" s="416" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="447"/>
-      <c r="F24" s="418" t="s">
+      <c r="E24" s="417"/>
+      <c r="F24" s="419" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="419"/>
-      <c r="H24" s="420"/>
+      <c r="G24" s="420"/>
+      <c r="H24" s="421"/>
     </row>
     <row r="25" spans="2:8" ht="17.5" customHeight="1">
-      <c r="B25" s="439" t="s">
+      <c r="B25" s="418" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="439"/>
-      <c r="D25" s="439" t="s">
+      <c r="C25" s="418"/>
+      <c r="D25" s="418" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="439"/>
-      <c r="F25" s="418"/>
-      <c r="G25" s="437"/>
-      <c r="H25" s="438"/>
+      <c r="E25" s="418"/>
+      <c r="F25" s="419"/>
+      <c r="G25" s="436"/>
+      <c r="H25" s="437"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="439" t="s">
+      <c r="B26" s="418" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="439"/>
-      <c r="D26" s="439" t="s">
+      <c r="C26" s="418"/>
+      <c r="D26" s="418" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="439"/>
-      <c r="F26" s="418" t="s">
+      <c r="E26" s="418"/>
+      <c r="F26" s="419" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="419"/>
-      <c r="H26" s="420"/>
+      <c r="G26" s="420"/>
+      <c r="H26" s="421"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="27"/>
     </row>
     <row r="28" spans="2:8" ht="18" thickBot="1">
-      <c r="B28" s="432" t="s">
+      <c r="B28" s="414" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="433"/>
-      <c r="D28" s="432" t="s">
+      <c r="C28" s="415"/>
+      <c r="D28" s="414" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="433"/>
-      <c r="F28" s="422" t="s">
+      <c r="E28" s="415"/>
+      <c r="F28" s="428" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="423"/>
-      <c r="H28" s="443"/>
+      <c r="G28" s="429"/>
+      <c r="H28" s="430"/>
     </row>
     <row r="29" spans="2:8" ht="18" thickTop="1">
-      <c r="B29" s="439" t="s">
+      <c r="B29" s="418" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="439"/>
-      <c r="D29" s="446" t="s">
+      <c r="C29" s="418"/>
+      <c r="D29" s="416" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="447"/>
-      <c r="F29" s="418"/>
-      <c r="G29" s="419"/>
-      <c r="H29" s="420"/>
+      <c r="E29" s="417"/>
+      <c r="F29" s="419"/>
+      <c r="G29" s="420"/>
+      <c r="H29" s="421"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="439" t="s">
+      <c r="B30" s="418" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="439"/>
-      <c r="D30" s="439" t="s">
+      <c r="C30" s="418"/>
+      <c r="D30" s="418" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="439"/>
-      <c r="F30" s="418"/>
-      <c r="G30" s="419"/>
-      <c r="H30" s="420"/>
+      <c r="E30" s="418"/>
+      <c r="F30" s="419"/>
+      <c r="G30" s="420"/>
+      <c r="H30" s="421"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="439" t="s">
+      <c r="B31" s="418" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="439"/>
-      <c r="D31" s="439" t="s">
+      <c r="C31" s="418"/>
+      <c r="D31" s="418" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="439"/>
-      <c r="F31" s="418"/>
-      <c r="G31" s="419"/>
-      <c r="H31" s="420"/>
+      <c r="E31" s="418"/>
+      <c r="F31" s="419"/>
+      <c r="G31" s="420"/>
+      <c r="H31" s="421"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="439" t="s">
+      <c r="B32" s="418" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="439"/>
-      <c r="D32" s="439" t="s">
+      <c r="C32" s="418"/>
+      <c r="D32" s="418" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="439"/>
-      <c r="F32" s="418"/>
-      <c r="G32" s="419"/>
-      <c r="H32" s="420"/>
+      <c r="E32" s="418"/>
+      <c r="F32" s="419"/>
+      <c r="G32" s="420"/>
+      <c r="H32" s="421"/>
     </row>
     <row r="33" spans="2:8" ht="17.5" customHeight="1">
-      <c r="B33" s="439" t="s">
+      <c r="B33" s="418" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="439"/>
-      <c r="D33" s="439" t="s">
+      <c r="C33" s="418"/>
+      <c r="D33" s="418" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="439"/>
-      <c r="F33" s="418" t="s">
+      <c r="E33" s="418"/>
+      <c r="F33" s="419" t="s">
         <v>83</v>
       </c>
-      <c r="G33" s="419"/>
-      <c r="H33" s="420"/>
+      <c r="G33" s="420"/>
+      <c r="H33" s="421"/>
     </row>
     <row r="34" spans="2:8" ht="17.5" customHeight="1">
-      <c r="B34" s="439" t="s">
+      <c r="B34" s="418" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="439"/>
-      <c r="D34" s="439" t="s">
+      <c r="C34" s="418"/>
+      <c r="D34" s="418" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="439"/>
-      <c r="F34" s="418" t="s">
+      <c r="E34" s="418"/>
+      <c r="F34" s="419" t="s">
         <v>83</v>
       </c>
-      <c r="G34" s="419"/>
-      <c r="H34" s="420"/>
+      <c r="G34" s="420"/>
+      <c r="H34" s="421"/>
     </row>
     <row r="35" spans="2:8" ht="17.5" customHeight="1">
-      <c r="B35" s="439" t="s">
+      <c r="B35" s="418" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="439"/>
-      <c r="D35" s="439" t="s">
+      <c r="C35" s="418"/>
+      <c r="D35" s="418" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="439"/>
-      <c r="F35" s="418" t="s">
+      <c r="E35" s="418"/>
+      <c r="F35" s="419" t="s">
         <v>83</v>
       </c>
-      <c r="G35" s="419"/>
-      <c r="H35" s="420"/>
+      <c r="G35" s="420"/>
+      <c r="H35" s="421"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="439" t="s">
+      <c r="B36" s="418" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="439"/>
-      <c r="D36" s="439" t="s">
+      <c r="C36" s="418"/>
+      <c r="D36" s="418" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="439"/>
-      <c r="F36" s="418"/>
-      <c r="G36" s="419"/>
-      <c r="H36" s="420"/>
+      <c r="E36" s="418"/>
+      <c r="F36" s="419"/>
+      <c r="G36" s="420"/>
+      <c r="H36" s="421"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="27"/>
     </row>
     <row r="38" spans="2:8" ht="18" thickBot="1">
-      <c r="B38" s="432" t="s">
+      <c r="B38" s="414" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="433"/>
-      <c r="D38" s="432" t="s">
+      <c r="C38" s="415"/>
+      <c r="D38" s="414" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="433"/>
-      <c r="F38" s="422" t="s">
+      <c r="E38" s="415"/>
+      <c r="F38" s="428" t="s">
         <v>55</v>
       </c>
-      <c r="G38" s="423"/>
-      <c r="H38" s="443"/>
+      <c r="G38" s="429"/>
+      <c r="H38" s="430"/>
     </row>
     <row r="39" spans="2:8" ht="41.5" customHeight="1" thickTop="1">
-      <c r="B39" s="414" t="s">
+      <c r="B39" s="424" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="415"/>
-      <c r="D39" s="439" t="s">
+      <c r="C39" s="425"/>
+      <c r="D39" s="418" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="439"/>
-      <c r="F39" s="425" t="s">
+      <c r="E39" s="418"/>
+      <c r="F39" s="431" t="s">
         <v>104</v>
       </c>
-      <c r="G39" s="444"/>
-      <c r="H39" s="445"/>
+      <c r="G39" s="432"/>
+      <c r="H39" s="433"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="414" t="s">
+      <c r="B40" s="424" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="415"/>
-      <c r="D40" s="439" t="s">
+      <c r="C40" s="425"/>
+      <c r="D40" s="418" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="439"/>
-      <c r="F40" s="418" t="s">
+      <c r="E40" s="418"/>
+      <c r="F40" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="G40" s="419"/>
-      <c r="H40" s="420"/>
+      <c r="G40" s="420"/>
+      <c r="H40" s="421"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="414" t="s">
+      <c r="B41" s="424" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="415"/>
-      <c r="D41" s="439" t="s">
+      <c r="C41" s="425"/>
+      <c r="D41" s="418" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="439"/>
-      <c r="F41" s="418" t="s">
+      <c r="E41" s="418"/>
+      <c r="F41" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="G41" s="419"/>
-      <c r="H41" s="420"/>
+      <c r="G41" s="420"/>
+      <c r="H41" s="421"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="414" t="s">
+      <c r="B42" s="424" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="415"/>
-      <c r="D42" s="439" t="s">
+      <c r="C42" s="425"/>
+      <c r="D42" s="418" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="439"/>
-      <c r="F42" s="418" t="s">
+      <c r="E42" s="418"/>
+      <c r="F42" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="G42" s="419"/>
-      <c r="H42" s="420"/>
+      <c r="G42" s="420"/>
+      <c r="H42" s="421"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="414" t="s">
+      <c r="B43" s="424" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="415"/>
-      <c r="D43" s="439" t="s">
+      <c r="C43" s="425"/>
+      <c r="D43" s="418" t="s">
         <v>113</v>
       </c>
-      <c r="E43" s="439"/>
-      <c r="F43" s="418" t="s">
+      <c r="E43" s="418"/>
+      <c r="F43" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="419"/>
-      <c r="H43" s="420"/>
+      <c r="G43" s="420"/>
+      <c r="H43" s="421"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="414" t="s">
+      <c r="B44" s="424" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="415"/>
-      <c r="D44" s="439" t="s">
+      <c r="C44" s="425"/>
+      <c r="D44" s="418" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="439"/>
-      <c r="F44" s="418" t="s">
+      <c r="E44" s="418"/>
+      <c r="F44" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="G44" s="419"/>
-      <c r="H44" s="420"/>
+      <c r="G44" s="420"/>
+      <c r="H44" s="421"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="414" t="s">
+      <c r="B45" s="424" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="415"/>
-      <c r="D45" s="439" t="s">
+      <c r="C45" s="425"/>
+      <c r="D45" s="418" t="s">
         <v>117</v>
       </c>
-      <c r="E45" s="439"/>
-      <c r="F45" s="418" t="s">
+      <c r="E45" s="418"/>
+      <c r="F45" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="G45" s="419"/>
-      <c r="H45" s="420"/>
+      <c r="G45" s="420"/>
+      <c r="H45" s="421"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="414" t="s">
+      <c r="B46" s="424" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="415"/>
-      <c r="D46" s="439" t="s">
+      <c r="C46" s="425"/>
+      <c r="D46" s="418" t="s">
         <v>119</v>
       </c>
-      <c r="E46" s="439"/>
-      <c r="F46" s="418" t="s">
+      <c r="E46" s="418"/>
+      <c r="F46" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="G46" s="419"/>
-      <c r="H46" s="420"/>
+      <c r="G46" s="420"/>
+      <c r="H46" s="421"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="414" t="s">
+      <c r="B47" s="424" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="415"/>
-      <c r="D47" s="439" t="s">
+      <c r="C47" s="425"/>
+      <c r="D47" s="418" t="s">
         <v>121</v>
       </c>
-      <c r="E47" s="439"/>
-      <c r="F47" s="418" t="s">
+      <c r="E47" s="418"/>
+      <c r="F47" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="G47" s="419"/>
-      <c r="H47" s="420"/>
+      <c r="G47" s="420"/>
+      <c r="H47" s="421"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="414" t="s">
+      <c r="B48" s="424" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="415"/>
-      <c r="D48" s="439" t="s">
+      <c r="C48" s="425"/>
+      <c r="D48" s="418" t="s">
         <v>123</v>
       </c>
-      <c r="E48" s="439"/>
-      <c r="F48" s="418" t="s">
+      <c r="E48" s="418"/>
+      <c r="F48" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="G48" s="419"/>
-      <c r="H48" s="420"/>
+      <c r="G48" s="420"/>
+      <c r="H48" s="421"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="414" t="s">
+      <c r="B49" s="424" t="s">
         <v>124</v>
       </c>
-      <c r="C49" s="415"/>
-      <c r="D49" s="439" t="s">
+      <c r="C49" s="425"/>
+      <c r="D49" s="418" t="s">
         <v>125</v>
       </c>
-      <c r="E49" s="439"/>
-      <c r="F49" s="418" t="s">
+      <c r="E49" s="418"/>
+      <c r="F49" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="419"/>
-      <c r="H49" s="420"/>
+      <c r="G49" s="420"/>
+      <c r="H49" s="421"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="414" t="s">
+      <c r="B50" s="424" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="415"/>
-      <c r="D50" s="439" t="s">
+      <c r="C50" s="425"/>
+      <c r="D50" s="418" t="s">
         <v>127</v>
       </c>
-      <c r="E50" s="439"/>
-      <c r="F50" s="418" t="s">
+      <c r="E50" s="418"/>
+      <c r="F50" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="G50" s="419"/>
-      <c r="H50" s="420"/>
+      <c r="G50" s="420"/>
+      <c r="H50" s="421"/>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="414" t="s">
+      <c r="B51" s="424" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="415"/>
-      <c r="D51" s="439" t="s">
+      <c r="C51" s="425"/>
+      <c r="D51" s="418" t="s">
         <v>129</v>
       </c>
-      <c r="E51" s="439"/>
-      <c r="F51" s="418" t="s">
+      <c r="E51" s="418"/>
+      <c r="F51" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="G51" s="419"/>
-      <c r="H51" s="420"/>
+      <c r="G51" s="420"/>
+      <c r="H51" s="421"/>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="414" t="s">
+      <c r="B52" s="424" t="s">
         <v>130</v>
       </c>
-      <c r="C52" s="415"/>
-      <c r="D52" s="439" t="s">
+      <c r="C52" s="425"/>
+      <c r="D52" s="418" t="s">
         <v>131</v>
       </c>
-      <c r="E52" s="439"/>
-      <c r="F52" s="418" t="s">
+      <c r="E52" s="418"/>
+      <c r="F52" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="G52" s="419"/>
-      <c r="H52" s="420"/>
+      <c r="G52" s="420"/>
+      <c r="H52" s="421"/>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="414" t="s">
+      <c r="B53" s="424" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="415"/>
-      <c r="D53" s="439" t="s">
+      <c r="C53" s="425"/>
+      <c r="D53" s="418" t="s">
         <v>133</v>
       </c>
-      <c r="E53" s="439"/>
-      <c r="F53" s="418" t="s">
+      <c r="E53" s="418"/>
+      <c r="F53" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="G53" s="419"/>
-      <c r="H53" s="420"/>
+      <c r="G53" s="420"/>
+      <c r="H53" s="421"/>
     </row>
     <row r="54" spans="2:8">
-      <c r="B54" s="414" t="s">
+      <c r="B54" s="424" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="415"/>
-      <c r="D54" s="439" t="s">
+      <c r="C54" s="425"/>
+      <c r="D54" s="418" t="s">
         <v>135</v>
       </c>
-      <c r="E54" s="439"/>
-      <c r="F54" s="418" t="s">
+      <c r="E54" s="418"/>
+      <c r="F54" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="G54" s="419"/>
-      <c r="H54" s="420"/>
+      <c r="G54" s="420"/>
+      <c r="H54" s="421"/>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="414" t="s">
+      <c r="B55" s="424" t="s">
         <v>136</v>
       </c>
-      <c r="C55" s="415"/>
-      <c r="D55" s="439" t="s">
+      <c r="C55" s="425"/>
+      <c r="D55" s="418" t="s">
         <v>137</v>
       </c>
-      <c r="E55" s="439"/>
-      <c r="F55" s="418" t="s">
+      <c r="E55" s="418"/>
+      <c r="F55" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="G55" s="419"/>
-      <c r="H55" s="420"/>
+      <c r="G55" s="420"/>
+      <c r="H55" s="421"/>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="414" t="s">
+      <c r="B56" s="424" t="s">
         <v>138</v>
       </c>
-      <c r="C56" s="415"/>
-      <c r="D56" s="439" t="s">
+      <c r="C56" s="425"/>
+      <c r="D56" s="418" t="s">
         <v>139</v>
       </c>
-      <c r="E56" s="439"/>
-      <c r="F56" s="418" t="s">
+      <c r="E56" s="418"/>
+      <c r="F56" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="G56" s="419"/>
-      <c r="H56" s="420"/>
+      <c r="G56" s="420"/>
+      <c r="H56" s="421"/>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="414" t="s">
+      <c r="B57" s="424" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="415"/>
-      <c r="D57" s="439" t="s">
+      <c r="C57" s="425"/>
+      <c r="D57" s="418" t="s">
         <v>141</v>
       </c>
-      <c r="E57" s="439"/>
-      <c r="F57" s="418" t="s">
+      <c r="E57" s="418"/>
+      <c r="F57" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="G57" s="419"/>
-      <c r="H57" s="420"/>
+      <c r="G57" s="420"/>
+      <c r="H57" s="421"/>
     </row>
     <row r="58" spans="2:8">
-      <c r="B58" s="414" t="s">
+      <c r="B58" s="424" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="415"/>
-      <c r="D58" s="439" t="s">
+      <c r="C58" s="425"/>
+      <c r="D58" s="418" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="439"/>
-      <c r="F58" s="418" t="s">
+      <c r="E58" s="418"/>
+      <c r="F58" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="G58" s="419"/>
-      <c r="H58" s="420"/>
+      <c r="G58" s="420"/>
+      <c r="H58" s="421"/>
     </row>
     <row r="59" spans="2:8" ht="38.5" customHeight="1">
-      <c r="B59" s="414" t="s">
+      <c r="B59" s="424" t="s">
         <v>144</v>
       </c>
-      <c r="C59" s="415"/>
-      <c r="D59" s="436" t="s">
+      <c r="C59" s="425"/>
+      <c r="D59" s="434" t="s">
         <v>145</v>
       </c>
-      <c r="E59" s="440"/>
-      <c r="F59" s="418" t="s">
+      <c r="E59" s="435"/>
+      <c r="F59" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="G59" s="419"/>
-      <c r="H59" s="420"/>
+      <c r="G59" s="420"/>
+      <c r="H59" s="421"/>
     </row>
     <row r="60" spans="2:8" ht="34.15" customHeight="1">
-      <c r="B60" s="414" t="s">
+      <c r="B60" s="424" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="415"/>
-      <c r="D60" s="436" t="s">
+      <c r="C60" s="425"/>
+      <c r="D60" s="434" t="s">
         <v>147</v>
       </c>
-      <c r="E60" s="440"/>
-      <c r="F60" s="418" t="s">
+      <c r="E60" s="435"/>
+      <c r="F60" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="G60" s="419"/>
-      <c r="H60" s="420"/>
+      <c r="G60" s="420"/>
+      <c r="H60" s="421"/>
     </row>
     <row r="61" spans="2:8" ht="34.15" customHeight="1">
-      <c r="B61" s="414" t="s">
+      <c r="B61" s="424" t="s">
         <v>148</v>
       </c>
-      <c r="C61" s="415"/>
-      <c r="D61" s="436" t="s">
+      <c r="C61" s="425"/>
+      <c r="D61" s="434" t="s">
         <v>149</v>
       </c>
-      <c r="E61" s="440"/>
-      <c r="F61" s="418" t="s">
+      <c r="E61" s="435"/>
+      <c r="F61" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="G61" s="419"/>
-      <c r="H61" s="420"/>
+      <c r="G61" s="420"/>
+      <c r="H61" s="421"/>
     </row>
     <row r="62" spans="2:8" ht="34.15" customHeight="1">
-      <c r="B62" s="414" t="s">
+      <c r="B62" s="424" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="415"/>
-      <c r="D62" s="436" t="s">
+      <c r="C62" s="425"/>
+      <c r="D62" s="434" t="s">
         <v>151</v>
       </c>
-      <c r="E62" s="440"/>
-      <c r="F62" s="418" t="s">
+      <c r="E62" s="435"/>
+      <c r="F62" s="419" t="s">
         <v>107</v>
       </c>
-      <c r="G62" s="419"/>
-      <c r="H62" s="420"/>
+      <c r="G62" s="420"/>
+      <c r="H62" s="421"/>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="25" t="s">
@@ -55143,18 +55149,129 @@
     </row>
   </sheetData>
   <mergeCells count="159">
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F48:H48"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F42:H42"/>
     <mergeCell ref="B13:C13"/>
@@ -55179,129 +55296,18 @@
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -56137,8 +56143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:W92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -56303,6 +56309,9 @@
         <v>309</v>
       </c>
       <c r="L25" s="294"/>
+      <c r="W25" s="25" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="26" spans="1:23">
       <c r="C26" s="25" t="s">
@@ -56348,6 +56357,9 @@
       <c r="R29" s="25" t="s">
         <v>1988</v>
       </c>
+      <c r="S29" s="25" t="s">
+        <v>1989</v>
+      </c>
       <c r="U29" s="25">
         <v>4</v>
       </c>
@@ -56383,6 +56395,9 @@
       <c r="R32" s="25" t="s">
         <v>1988</v>
       </c>
+      <c r="S32" s="25" t="s">
+        <v>1989</v>
+      </c>
       <c r="U32" s="377">
         <v>15</v>
       </c>
@@ -56430,6 +56445,9 @@
       <c r="R37" s="25" t="s">
         <v>1988</v>
       </c>
+      <c r="S37" s="25" t="s">
+        <v>1989</v>
+      </c>
       <c r="U37" s="25">
         <v>1</v>
       </c>
@@ -56528,6 +56546,9 @@
       <c r="R49" s="25" t="s">
         <v>1988</v>
       </c>
+      <c r="S49" s="25" t="s">
+        <v>1989</v>
+      </c>
       <c r="U49" s="25">
         <v>3</v>
       </c>
@@ -56569,6 +56590,12 @@
       <c r="Q54" s="25" t="s">
         <v>1987</v>
       </c>
+      <c r="R54" s="25" t="s">
+        <v>1988</v>
+      </c>
+      <c r="S54" s="25" t="s">
+        <v>1989</v>
+      </c>
       <c r="U54" s="25">
         <v>8</v>
       </c>
@@ -56604,6 +56631,12 @@
       <c r="Q58" s="25" t="s">
         <v>1987</v>
       </c>
+      <c r="R58" s="25" t="s">
+        <v>1988</v>
+      </c>
+      <c r="S58" s="25" t="s">
+        <v>1989</v>
+      </c>
       <c r="U58" s="25">
         <v>1</v>
       </c>
@@ -56627,6 +56660,9 @@
       <c r="B62" s="371" t="s">
         <v>357</v>
       </c>
+      <c r="H62" s="371" t="s">
+        <v>1990</v>
+      </c>
       <c r="L62" s="372" t="s">
         <v>358</v>
       </c>
@@ -56638,6 +56674,9 @@
       </c>
       <c r="R62" s="25" t="s">
         <v>1988</v>
+      </c>
+      <c r="S62" s="371" t="s">
+        <v>1989</v>
       </c>
       <c r="U62" s="371">
         <v>1</v>
@@ -56683,6 +56722,12 @@
       <c r="Q68" s="25" t="s">
         <v>1987</v>
       </c>
+      <c r="R68" s="25" t="s">
+        <v>1988</v>
+      </c>
+      <c r="S68" s="25" t="s">
+        <v>1989</v>
+      </c>
       <c r="U68" s="377">
         <v>3</v>
       </c>
@@ -56709,6 +56754,12 @@
       <c r="Q71" s="25" t="s">
         <v>1987</v>
       </c>
+      <c r="R71" s="25" t="s">
+        <v>1988</v>
+      </c>
+      <c r="S71" s="25" t="s">
+        <v>1989</v>
+      </c>
       <c r="U71" s="25">
         <v>1</v>
       </c>
@@ -56735,6 +56786,12 @@
       <c r="Q74" s="25" t="s">
         <v>1987</v>
       </c>
+      <c r="R74" s="25" t="s">
+        <v>1988</v>
+      </c>
+      <c r="S74" s="25" t="s">
+        <v>1989</v>
+      </c>
       <c r="U74" s="25">
         <v>8</v>
       </c>
@@ -56773,6 +56830,12 @@
       <c r="Q78" s="25" t="s">
         <v>1987</v>
       </c>
+      <c r="R78" s="25" t="s">
+        <v>1988</v>
+      </c>
+      <c r="S78" s="25" t="s">
+        <v>1989</v>
+      </c>
       <c r="U78" s="25">
         <v>8</v>
       </c>
@@ -56802,6 +56865,12 @@
       <c r="Q81" s="25" t="s">
         <v>1987</v>
       </c>
+      <c r="R81" s="25" t="s">
+        <v>1988</v>
+      </c>
+      <c r="S81" s="25" t="s">
+        <v>1989</v>
+      </c>
       <c r="U81" s="371">
         <v>1</v>
       </c>
@@ -56840,6 +56909,12 @@
       <c r="Q86" s="25" t="s">
         <v>1987</v>
       </c>
+      <c r="R86" s="25" t="s">
+        <v>1988</v>
+      </c>
+      <c r="S86" s="25" t="s">
+        <v>1989</v>
+      </c>
       <c r="U86" s="25">
         <v>7</v>
       </c>
@@ -56871,6 +56946,12 @@
       </c>
       <c r="Q90" s="25" t="s">
         <v>1987</v>
+      </c>
+      <c r="R90" s="25" t="s">
+        <v>1988</v>
+      </c>
+      <c r="S90" s="25" t="s">
+        <v>1989</v>
       </c>
       <c r="U90" s="25">
         <v>6</v>
@@ -56961,85 +57042,85 @@
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
-      <c r="I5" s="468" t="s">
+      <c r="I5" s="453" t="s">
         <v>391</v>
       </c>
-      <c r="J5" s="468"/>
-      <c r="K5" s="468"/>
-      <c r="L5" s="468"/>
-      <c r="M5" s="468"/>
-      <c r="N5" s="468"/>
-      <c r="O5" s="468"/>
-      <c r="P5" s="468"/>
-      <c r="Q5" s="469" t="s">
+      <c r="J5" s="453"/>
+      <c r="K5" s="453"/>
+      <c r="L5" s="453"/>
+      <c r="M5" s="453"/>
+      <c r="N5" s="453"/>
+      <c r="O5" s="453"/>
+      <c r="P5" s="453"/>
+      <c r="Q5" s="454" t="s">
         <v>392</v>
       </c>
-      <c r="R5" s="469"/>
-      <c r="S5" s="469"/>
-      <c r="T5" s="469"/>
-      <c r="U5" s="469"/>
-      <c r="V5" s="469"/>
-      <c r="W5" s="469"/>
-      <c r="X5" s="470"/>
+      <c r="R5" s="454"/>
+      <c r="S5" s="454"/>
+      <c r="T5" s="454"/>
+      <c r="U5" s="454"/>
+      <c r="V5" s="454"/>
+      <c r="W5" s="454"/>
+      <c r="X5" s="455"/>
       <c r="Y5" s="25"/>
     </row>
     <row r="6" spans="2:25" s="35" customFormat="1">
-      <c r="B6" s="458" t="s">
+      <c r="B6" s="448" t="s">
         <v>393</v>
       </c>
-      <c r="C6" s="460" t="s">
+      <c r="C6" s="461" t="s">
         <v>394</v>
       </c>
-      <c r="D6" s="461"/>
-      <c r="E6" s="472" t="s">
+      <c r="D6" s="462"/>
+      <c r="E6" s="450" t="s">
         <v>395</v>
       </c>
-      <c r="F6" s="473" t="s">
+      <c r="F6" s="451" t="s">
         <v>396</v>
       </c>
-      <c r="G6" s="473"/>
-      <c r="H6" s="474"/>
-      <c r="I6" s="468" t="s">
+      <c r="G6" s="451"/>
+      <c r="H6" s="452"/>
+      <c r="I6" s="453" t="s">
         <v>397</v>
       </c>
-      <c r="J6" s="468"/>
-      <c r="K6" s="468" t="s">
+      <c r="J6" s="453"/>
+      <c r="K6" s="453" t="s">
         <v>398</v>
       </c>
-      <c r="L6" s="468"/>
-      <c r="M6" s="468" t="s">
+      <c r="L6" s="453"/>
+      <c r="M6" s="453" t="s">
         <v>399</v>
       </c>
-      <c r="N6" s="468"/>
-      <c r="O6" s="468" t="s">
+      <c r="N6" s="453"/>
+      <c r="O6" s="453" t="s">
         <v>400</v>
       </c>
-      <c r="P6" s="468"/>
-      <c r="Q6" s="469" t="s">
+      <c r="P6" s="453"/>
+      <c r="Q6" s="454" t="s">
         <v>397</v>
       </c>
-      <c r="R6" s="470"/>
-      <c r="S6" s="471" t="s">
+      <c r="R6" s="455"/>
+      <c r="S6" s="456" t="s">
         <v>398</v>
       </c>
-      <c r="T6" s="470"/>
-      <c r="U6" s="471" t="s">
+      <c r="T6" s="455"/>
+      <c r="U6" s="456" t="s">
         <v>399</v>
       </c>
-      <c r="V6" s="470"/>
-      <c r="W6" s="471" t="s">
+      <c r="V6" s="455"/>
+      <c r="W6" s="456" t="s">
         <v>400</v>
       </c>
-      <c r="X6" s="470"/>
-      <c r="Y6" s="458" t="s">
+      <c r="X6" s="455"/>
+      <c r="Y6" s="448" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="7" spans="2:25" s="35" customFormat="1" ht="35">
-      <c r="B7" s="458"/>
-      <c r="C7" s="462"/>
-      <c r="D7" s="463"/>
-      <c r="E7" s="472"/>
+      <c r="B7" s="448"/>
+      <c r="C7" s="463"/>
+      <c r="D7" s="464"/>
+      <c r="E7" s="450"/>
       <c r="F7" s="37" t="s">
         <v>402</v>
       </c>
@@ -57097,16 +57178,16 @@
       <c r="X7" s="36" t="s">
         <v>408</v>
       </c>
-      <c r="Y7" s="458"/>
+      <c r="Y7" s="448"/>
     </row>
     <row r="8" spans="2:25" s="35" customFormat="1">
       <c r="B8" s="156">
         <v>1</v>
       </c>
-      <c r="C8" s="459" t="s">
+      <c r="C8" s="449" t="s">
         <v>409</v>
       </c>
-      <c r="D8" s="459"/>
+      <c r="D8" s="449"/>
       <c r="E8" s="157">
         <v>89</v>
       </c>
@@ -57177,10 +57258,10 @@
       <c r="B9" s="156">
         <v>2</v>
       </c>
-      <c r="C9" s="459" t="s">
+      <c r="C9" s="449" t="s">
         <v>410</v>
       </c>
-      <c r="D9" s="459"/>
+      <c r="D9" s="449"/>
       <c r="E9" s="157">
         <v>6</v>
       </c>
@@ -57251,10 +57332,10 @@
       <c r="B10" s="156">
         <v>3</v>
       </c>
-      <c r="C10" s="459" t="s">
+      <c r="C10" s="449" t="s">
         <v>411</v>
       </c>
-      <c r="D10" s="459"/>
+      <c r="D10" s="449"/>
       <c r="E10" s="157">
         <v>12</v>
       </c>
@@ -57325,10 +57406,10 @@
       <c r="B11" s="156">
         <v>4</v>
       </c>
-      <c r="C11" s="466" t="s">
+      <c r="C11" s="459" t="s">
         <v>412</v>
       </c>
-      <c r="D11" s="466"/>
+      <c r="D11" s="459"/>
       <c r="E11" s="157">
         <v>20</v>
       </c>
@@ -57399,10 +57480,10 @@
       <c r="B12" s="156">
         <v>5</v>
       </c>
-      <c r="C12" s="459" t="s">
+      <c r="C12" s="449" t="s">
         <v>413</v>
       </c>
-      <c r="D12" s="459"/>
+      <c r="D12" s="449"/>
       <c r="E12" s="157">
         <v>55</v>
       </c>
@@ -57473,10 +57554,10 @@
       <c r="B13" s="156">
         <v>6</v>
       </c>
-      <c r="C13" s="459" t="s">
+      <c r="C13" s="449" t="s">
         <v>414</v>
       </c>
-      <c r="D13" s="459"/>
+      <c r="D13" s="449"/>
       <c r="E13" s="157">
         <v>88</v>
       </c>
@@ -57547,10 +57628,10 @@
       <c r="B14" s="156">
         <v>7</v>
       </c>
-      <c r="C14" s="459" t="s">
+      <c r="C14" s="449" t="s">
         <v>415</v>
       </c>
-      <c r="D14" s="459"/>
+      <c r="D14" s="449"/>
       <c r="E14" s="157">
         <v>155</v>
       </c>
@@ -57621,10 +57702,10 @@
       <c r="B15" s="324">
         <v>8</v>
       </c>
-      <c r="C15" s="467" t="s">
+      <c r="C15" s="460" t="s">
         <v>416</v>
       </c>
-      <c r="D15" s="467"/>
+      <c r="D15" s="460"/>
       <c r="E15" s="325">
         <v>16</v>
       </c>
@@ -57695,10 +57776,10 @@
       <c r="B16" s="156">
         <v>9</v>
       </c>
-      <c r="C16" s="459" t="s">
+      <c r="C16" s="449" t="s">
         <v>417</v>
       </c>
-      <c r="D16" s="459"/>
+      <c r="D16" s="449"/>
       <c r="E16" s="157">
         <v>9</v>
       </c>
@@ -57769,10 +57850,10 @@
       <c r="B17" s="324">
         <v>10</v>
       </c>
-      <c r="C17" s="467" t="s">
+      <c r="C17" s="460" t="s">
         <v>418</v>
       </c>
-      <c r="D17" s="467"/>
+      <c r="D17" s="460"/>
       <c r="E17" s="325">
         <v>1</v>
       </c>
@@ -57843,10 +57924,10 @@
       <c r="B18" s="156">
         <v>11</v>
       </c>
-      <c r="C18" s="459" t="s">
+      <c r="C18" s="449" t="s">
         <v>419</v>
       </c>
-      <c r="D18" s="459"/>
+      <c r="D18" s="449"/>
       <c r="E18" s="157">
         <v>3</v>
       </c>
@@ -57917,10 +57998,10 @@
       <c r="B19" s="156">
         <v>12</v>
       </c>
-      <c r="C19" s="459" t="s">
+      <c r="C19" s="449" t="s">
         <v>420</v>
       </c>
-      <c r="D19" s="459"/>
+      <c r="D19" s="449"/>
       <c r="E19" s="157">
         <v>1</v>
       </c>
@@ -57991,10 +58072,10 @@
       <c r="B20" s="156">
         <v>13</v>
       </c>
-      <c r="C20" s="459" t="s">
+      <c r="C20" s="449" t="s">
         <v>421</v>
       </c>
-      <c r="D20" s="459"/>
+      <c r="D20" s="449"/>
       <c r="E20" s="157">
         <v>8</v>
       </c>
@@ -58065,10 +58146,10 @@
       <c r="B21" s="324">
         <v>14</v>
       </c>
-      <c r="C21" s="467" t="s">
+      <c r="C21" s="460" t="s">
         <v>422</v>
       </c>
-      <c r="D21" s="467"/>
+      <c r="D21" s="460"/>
       <c r="E21" s="325">
         <v>9</v>
       </c>
@@ -58139,10 +58220,10 @@
       <c r="B22" s="156">
         <v>15</v>
       </c>
-      <c r="C22" s="459" t="s">
+      <c r="C22" s="449" t="s">
         <v>423</v>
       </c>
-      <c r="D22" s="459"/>
+      <c r="D22" s="449"/>
       <c r="E22" s="157">
         <f>COUNTA('19.WPF compose'!$G$4:$G$65536)</f>
         <v>7</v>
@@ -58229,10 +58310,10 @@
       <c r="B23" s="324">
         <v>16</v>
       </c>
-      <c r="C23" s="467" t="s">
+      <c r="C23" s="460" t="s">
         <v>424</v>
       </c>
-      <c r="D23" s="467"/>
+      <c r="D23" s="460"/>
       <c r="E23" s="325">
         <f>COUNTA('20.YVU format'!$G$4:$G$65536)</f>
         <v>6</v>
@@ -58317,10 +58398,10 @@
     </row>
     <row r="24" spans="2:54" s="35" customFormat="1">
       <c r="B24" s="45"/>
-      <c r="C24" s="464" t="s">
+      <c r="C24" s="457" t="s">
         <v>425</v>
       </c>
-      <c r="D24" s="465"/>
+      <c r="D24" s="458"/>
       <c r="E24" s="42">
         <f>SUM(E$8:E$23)</f>
         <v>485</v>
@@ -58440,22 +58521,22 @@
     <row r="27" spans="2:54">
       <c r="C27" s="296"/>
       <c r="D27" s="297"/>
-      <c r="E27" s="455" t="s">
+      <c r="E27" s="465" t="s">
         <v>428</v>
       </c>
-      <c r="F27" s="456"/>
-      <c r="G27" s="456"/>
-      <c r="H27" s="456"/>
-      <c r="I27" s="456"/>
-      <c r="J27" s="456"/>
-      <c r="K27" s="456"/>
-      <c r="L27" s="456"/>
-      <c r="M27" s="456"/>
-      <c r="N27" s="456"/>
-      <c r="O27" s="456"/>
-      <c r="P27" s="456"/>
-      <c r="Q27" s="456"/>
-      <c r="R27" s="457"/>
+      <c r="F27" s="466"/>
+      <c r="G27" s="466"/>
+      <c r="H27" s="466"/>
+      <c r="I27" s="466"/>
+      <c r="J27" s="466"/>
+      <c r="K27" s="466"/>
+      <c r="L27" s="466"/>
+      <c r="M27" s="466"/>
+      <c r="N27" s="466"/>
+      <c r="O27" s="466"/>
+      <c r="P27" s="466"/>
+      <c r="Q27" s="466"/>
+      <c r="R27" s="467"/>
       <c r="S27" s="331"/>
       <c r="T27" s="331"/>
       <c r="U27" s="331"/>
@@ -58464,28 +58545,28 @@
       <c r="X27" s="331"/>
     </row>
     <row r="28" spans="2:54">
-      <c r="C28" s="448" t="s">
+      <c r="C28" s="468" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="298" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="455" t="s">
+      <c r="E28" s="465" t="s">
         <v>429</v>
       </c>
-      <c r="F28" s="456"/>
-      <c r="G28" s="456"/>
-      <c r="H28" s="456"/>
-      <c r="I28" s="456"/>
-      <c r="J28" s="456"/>
-      <c r="K28" s="456"/>
-      <c r="L28" s="456"/>
-      <c r="M28" s="456"/>
-      <c r="N28" s="456"/>
-      <c r="O28" s="456"/>
-      <c r="P28" s="456"/>
-      <c r="Q28" s="456"/>
-      <c r="R28" s="457"/>
+      <c r="F28" s="466"/>
+      <c r="G28" s="466"/>
+      <c r="H28" s="466"/>
+      <c r="I28" s="466"/>
+      <c r="J28" s="466"/>
+      <c r="K28" s="466"/>
+      <c r="L28" s="466"/>
+      <c r="M28" s="466"/>
+      <c r="N28" s="466"/>
+      <c r="O28" s="466"/>
+      <c r="P28" s="466"/>
+      <c r="Q28" s="466"/>
+      <c r="R28" s="467"/>
       <c r="S28" s="331"/>
       <c r="T28" s="331"/>
       <c r="U28" s="331"/>
@@ -58494,26 +58575,26 @@
       <c r="X28" s="331"/>
     </row>
     <row r="29" spans="2:54">
-      <c r="C29" s="449"/>
+      <c r="C29" s="469"/>
       <c r="D29" s="298" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="455" t="s">
+      <c r="E29" s="465" t="s">
         <v>430</v>
       </c>
-      <c r="F29" s="456"/>
-      <c r="G29" s="456"/>
-      <c r="H29" s="456"/>
-      <c r="I29" s="456"/>
-      <c r="J29" s="456"/>
-      <c r="K29" s="456"/>
-      <c r="L29" s="456"/>
-      <c r="M29" s="456"/>
-      <c r="N29" s="456"/>
-      <c r="O29" s="456"/>
-      <c r="P29" s="456"/>
-      <c r="Q29" s="456"/>
-      <c r="R29" s="457"/>
+      <c r="F29" s="466"/>
+      <c r="G29" s="466"/>
+      <c r="H29" s="466"/>
+      <c r="I29" s="466"/>
+      <c r="J29" s="466"/>
+      <c r="K29" s="466"/>
+      <c r="L29" s="466"/>
+      <c r="M29" s="466"/>
+      <c r="N29" s="466"/>
+      <c r="O29" s="466"/>
+      <c r="P29" s="466"/>
+      <c r="Q29" s="466"/>
+      <c r="R29" s="467"/>
       <c r="S29" s="331"/>
       <c r="T29" s="331"/>
       <c r="U29" s="331"/>
@@ -58522,26 +58603,26 @@
       <c r="X29" s="331"/>
     </row>
     <row r="30" spans="2:54">
-      <c r="C30" s="449"/>
+      <c r="C30" s="469"/>
       <c r="D30" s="298" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="455" t="s">
+      <c r="E30" s="465" t="s">
         <v>431</v>
       </c>
-      <c r="F30" s="456"/>
-      <c r="G30" s="456"/>
-      <c r="H30" s="456"/>
-      <c r="I30" s="456"/>
-      <c r="J30" s="456"/>
-      <c r="K30" s="456"/>
-      <c r="L30" s="456"/>
-      <c r="M30" s="456"/>
-      <c r="N30" s="456"/>
-      <c r="O30" s="456"/>
-      <c r="P30" s="456"/>
-      <c r="Q30" s="456"/>
-      <c r="R30" s="457"/>
+      <c r="F30" s="466"/>
+      <c r="G30" s="466"/>
+      <c r="H30" s="466"/>
+      <c r="I30" s="466"/>
+      <c r="J30" s="466"/>
+      <c r="K30" s="466"/>
+      <c r="L30" s="466"/>
+      <c r="M30" s="466"/>
+      <c r="N30" s="466"/>
+      <c r="O30" s="466"/>
+      <c r="P30" s="466"/>
+      <c r="Q30" s="466"/>
+      <c r="R30" s="467"/>
       <c r="S30" s="331"/>
       <c r="T30" s="331"/>
       <c r="U30" s="331"/>
@@ -58550,26 +58631,26 @@
       <c r="X30" s="331"/>
     </row>
     <row r="31" spans="2:54">
-      <c r="C31" s="450"/>
+      <c r="C31" s="470"/>
       <c r="D31" s="298" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="455" t="s">
+      <c r="E31" s="465" t="s">
         <v>432</v>
       </c>
-      <c r="F31" s="456"/>
-      <c r="G31" s="456"/>
-      <c r="H31" s="456"/>
-      <c r="I31" s="456"/>
-      <c r="J31" s="456"/>
-      <c r="K31" s="456"/>
-      <c r="L31" s="456"/>
-      <c r="M31" s="456"/>
-      <c r="N31" s="456"/>
-      <c r="O31" s="456"/>
-      <c r="P31" s="456"/>
-      <c r="Q31" s="456"/>
-      <c r="R31" s="457"/>
+      <c r="F31" s="466"/>
+      <c r="G31" s="466"/>
+      <c r="H31" s="466"/>
+      <c r="I31" s="466"/>
+      <c r="J31" s="466"/>
+      <c r="K31" s="466"/>
+      <c r="L31" s="466"/>
+      <c r="M31" s="466"/>
+      <c r="N31" s="466"/>
+      <c r="O31" s="466"/>
+      <c r="P31" s="466"/>
+      <c r="Q31" s="466"/>
+      <c r="R31" s="467"/>
       <c r="S31" s="331"/>
       <c r="T31" s="331"/>
       <c r="U31" s="331"/>
@@ -58578,28 +58659,28 @@
       <c r="X31" s="331"/>
     </row>
     <row r="32" spans="2:54">
-      <c r="C32" s="448" t="s">
+      <c r="C32" s="468" t="s">
         <v>433</v>
       </c>
       <c r="D32" s="299" t="s">
         <v>434</v>
       </c>
-      <c r="E32" s="451" t="s">
+      <c r="E32" s="471" t="s">
         <v>435</v>
       </c>
-      <c r="F32" s="452"/>
-      <c r="G32" s="452"/>
-      <c r="H32" s="452"/>
-      <c r="I32" s="452"/>
-      <c r="J32" s="452"/>
-      <c r="K32" s="452"/>
-      <c r="L32" s="452"/>
-      <c r="M32" s="452"/>
-      <c r="N32" s="452"/>
-      <c r="O32" s="452"/>
-      <c r="P32" s="452"/>
-      <c r="Q32" s="452"/>
-      <c r="R32" s="453"/>
+      <c r="F32" s="472"/>
+      <c r="G32" s="472"/>
+      <c r="H32" s="472"/>
+      <c r="I32" s="472"/>
+      <c r="J32" s="472"/>
+      <c r="K32" s="472"/>
+      <c r="L32" s="472"/>
+      <c r="M32" s="472"/>
+      <c r="N32" s="472"/>
+      <c r="O32" s="472"/>
+      <c r="P32" s="472"/>
+      <c r="Q32" s="472"/>
+      <c r="R32" s="473"/>
       <c r="S32" s="331"/>
       <c r="T32" s="331"/>
       <c r="U32" s="331"/>
@@ -58608,26 +58689,26 @@
       <c r="X32" s="331"/>
     </row>
     <row r="33" spans="3:24">
-      <c r="C33" s="449"/>
+      <c r="C33" s="469"/>
       <c r="D33" s="299" t="s">
         <v>436</v>
       </c>
-      <c r="E33" s="454" t="s">
+      <c r="E33" s="474" t="s">
         <v>437</v>
       </c>
-      <c r="F33" s="452"/>
-      <c r="G33" s="452"/>
-      <c r="H33" s="452"/>
-      <c r="I33" s="452"/>
-      <c r="J33" s="452"/>
-      <c r="K33" s="452"/>
-      <c r="L33" s="452"/>
-      <c r="M33" s="452"/>
-      <c r="N33" s="452"/>
-      <c r="O33" s="452"/>
-      <c r="P33" s="452"/>
-      <c r="Q33" s="452"/>
-      <c r="R33" s="453"/>
+      <c r="F33" s="472"/>
+      <c r="G33" s="472"/>
+      <c r="H33" s="472"/>
+      <c r="I33" s="472"/>
+      <c r="J33" s="472"/>
+      <c r="K33" s="472"/>
+      <c r="L33" s="472"/>
+      <c r="M33" s="472"/>
+      <c r="N33" s="472"/>
+      <c r="O33" s="472"/>
+      <c r="P33" s="472"/>
+      <c r="Q33" s="472"/>
+      <c r="R33" s="473"/>
       <c r="S33" s="331"/>
       <c r="T33" s="331"/>
       <c r="U33" s="331"/>
@@ -58636,26 +58717,26 @@
       <c r="X33" s="331"/>
     </row>
     <row r="34" spans="3:24">
-      <c r="C34" s="449"/>
+      <c r="C34" s="469"/>
       <c r="D34" s="299" t="s">
         <v>438</v>
       </c>
-      <c r="E34" s="454" t="s">
+      <c r="E34" s="474" t="s">
         <v>439</v>
       </c>
-      <c r="F34" s="452"/>
-      <c r="G34" s="452"/>
-      <c r="H34" s="452"/>
-      <c r="I34" s="452"/>
-      <c r="J34" s="452"/>
-      <c r="K34" s="452"/>
-      <c r="L34" s="452"/>
-      <c r="M34" s="452"/>
-      <c r="N34" s="452"/>
-      <c r="O34" s="452"/>
-      <c r="P34" s="452"/>
-      <c r="Q34" s="452"/>
-      <c r="R34" s="453"/>
+      <c r="F34" s="472"/>
+      <c r="G34" s="472"/>
+      <c r="H34" s="472"/>
+      <c r="I34" s="472"/>
+      <c r="J34" s="472"/>
+      <c r="K34" s="472"/>
+      <c r="L34" s="472"/>
+      <c r="M34" s="472"/>
+      <c r="N34" s="472"/>
+      <c r="O34" s="472"/>
+      <c r="P34" s="472"/>
+      <c r="Q34" s="472"/>
+      <c r="R34" s="473"/>
       <c r="S34" s="331"/>
       <c r="T34" s="331"/>
       <c r="U34" s="331"/>
@@ -58664,26 +58745,26 @@
       <c r="X34" s="331"/>
     </row>
     <row r="35" spans="3:24">
-      <c r="C35" s="450"/>
+      <c r="C35" s="470"/>
       <c r="D35" s="298" t="s">
         <v>440</v>
       </c>
-      <c r="E35" s="455" t="s">
+      <c r="E35" s="465" t="s">
         <v>441</v>
       </c>
-      <c r="F35" s="456"/>
-      <c r="G35" s="456"/>
-      <c r="H35" s="456"/>
-      <c r="I35" s="456"/>
-      <c r="J35" s="456"/>
-      <c r="K35" s="456"/>
-      <c r="L35" s="456"/>
-      <c r="M35" s="456"/>
-      <c r="N35" s="456"/>
-      <c r="O35" s="456"/>
-      <c r="P35" s="456"/>
-      <c r="Q35" s="456"/>
-      <c r="R35" s="457"/>
+      <c r="F35" s="466"/>
+      <c r="G35" s="466"/>
+      <c r="H35" s="466"/>
+      <c r="I35" s="466"/>
+      <c r="J35" s="466"/>
+      <c r="K35" s="466"/>
+      <c r="L35" s="466"/>
+      <c r="M35" s="466"/>
+      <c r="N35" s="466"/>
+      <c r="O35" s="466"/>
+      <c r="P35" s="466"/>
+      <c r="Q35" s="466"/>
+      <c r="R35" s="467"/>
       <c r="S35" s="331"/>
       <c r="T35" s="331"/>
       <c r="U35" s="331"/>
@@ -58836,8 +58917,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6F44B949-1803-4C1C-82AE-694A677CA00F}" scale="75" showPageBreaks="1" showGridLines="0" printArea="1" view="pageBreakPreview" topLeftCell="A5">
-      <selection activeCell="F31" sqref="F31"/>
+    <customSheetView guid="{BAE6DCF4-0CDF-483F-8380-77ECB7F6E122}" scale="75" showPageBreaks="1" showGridLines="0" printArea="1" view="pageBreakPreview" showRuler="0">
+      <selection activeCell="I28" sqref="I28"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
       <headerFooter alignWithMargins="0">
@@ -58854,8 +58935,8 @@
         <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{BAE6DCF4-0CDF-483F-8380-77ECB7F6E122}" scale="75" showPageBreaks="1" showGridLines="0" printArea="1" view="pageBreakPreview" showRuler="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <customSheetView guid="{6F44B949-1803-4C1C-82AE-694A677CA00F}" scale="75" showPageBreaks="1" showGridLines="0" printArea="1" view="pageBreakPreview" topLeftCell="A5">
+      <selection activeCell="F31" sqref="F31"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId3"/>
       <headerFooter alignWithMargins="0">
@@ -58865,20 +58946,24 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="43">
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I5:P5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q5:X5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="E32:R32"/>
+    <mergeCell ref="E33:R33"/>
+    <mergeCell ref="E34:R34"/>
+    <mergeCell ref="E35:R35"/>
+    <mergeCell ref="E27:R27"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="E28:R28"/>
+    <mergeCell ref="E29:R29"/>
+    <mergeCell ref="E30:R30"/>
+    <mergeCell ref="E31:R31"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C23:D23"/>
@@ -58890,24 +58975,20 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E27:R27"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="E28:R28"/>
-    <mergeCell ref="E29:R29"/>
-    <mergeCell ref="E30:R30"/>
-    <mergeCell ref="E31:R31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="E32:R32"/>
-    <mergeCell ref="E33:R33"/>
-    <mergeCell ref="E34:R34"/>
-    <mergeCell ref="E35:R35"/>
+    <mergeCell ref="I5:P5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q5:X5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="J8:J14 J16 J18:J20">
@@ -59073,28 +59154,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="23.5">
-      <c r="B3" s="478" t="s">
+      <c r="B3" s="481" t="s">
         <v>453</v>
       </c>
-      <c r="C3" s="478"/>
-      <c r="D3" s="478"/>
-      <c r="E3" s="478"/>
-      <c r="F3" s="478"/>
-      <c r="G3" s="478"/>
-      <c r="H3" s="478"/>
-      <c r="I3" s="478"/>
+      <c r="C3" s="481"/>
+      <c r="D3" s="481"/>
+      <c r="E3" s="481"/>
+      <c r="F3" s="481"/>
+      <c r="G3" s="481"/>
+      <c r="H3" s="481"/>
+      <c r="I3" s="481"/>
     </row>
     <row r="4" spans="2:9" ht="14.5" hidden="1">
-      <c r="B4" s="480" t="s">
+      <c r="B4" s="476" t="s">
         <v>454</v>
       </c>
-      <c r="C4" s="480"/>
-      <c r="D4" s="480"/>
-      <c r="E4" s="480"/>
-      <c r="F4" s="480"/>
-      <c r="G4" s="480"/>
-      <c r="H4" s="480"/>
-      <c r="I4" s="480"/>
+      <c r="C4" s="476"/>
+      <c r="D4" s="476"/>
+      <c r="E4" s="476"/>
+      <c r="F4" s="476"/>
+      <c r="G4" s="476"/>
+      <c r="H4" s="476"/>
+      <c r="I4" s="476"/>
     </row>
     <row r="5" spans="2:9" ht="14.5" hidden="1">
       <c r="B5" s="333"/>
@@ -59113,10 +59194,10 @@
       <c r="G5" s="335" t="s">
         <v>459</v>
       </c>
-      <c r="H5" s="492" t="s">
+      <c r="H5" s="488" t="s">
         <v>460</v>
       </c>
-      <c r="I5" s="492"/>
+      <c r="I5" s="488"/>
     </row>
     <row r="6" spans="2:9" hidden="1">
       <c r="B6" s="333" t="s">
@@ -59135,13 +59216,13 @@
         <f t="shared" ref="F6:F13" si="0">C6+D6+E6</f>
         <v>81</v>
       </c>
-      <c r="G6" s="493" t="s">
+      <c r="G6" s="489" t="s">
         <v>462</v>
       </c>
       <c r="H6" s="343" t="s">
         <v>463</v>
       </c>
-      <c r="I6" s="494" t="s">
+      <c r="I6" s="490" t="s">
         <v>464</v>
       </c>
     </row>
@@ -59162,11 +59243,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G7" s="493"/>
+      <c r="G7" s="489"/>
       <c r="H7" s="343" t="s">
         <v>463</v>
       </c>
-      <c r="I7" s="495"/>
+      <c r="I7" s="491"/>
     </row>
     <row r="8" spans="2:9" hidden="1">
       <c r="B8" s="333" t="s">
@@ -59185,11 +59266,11 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G8" s="493"/>
+      <c r="G8" s="489"/>
       <c r="H8" s="343" t="s">
         <v>463</v>
       </c>
-      <c r="I8" s="495"/>
+      <c r="I8" s="491"/>
     </row>
     <row r="9" spans="2:9" ht="36.75" hidden="1" customHeight="1">
       <c r="B9" s="333" t="s">
@@ -59208,11 +59289,11 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="G9" s="493"/>
+      <c r="G9" s="489"/>
       <c r="H9" s="343" t="s">
         <v>468</v>
       </c>
-      <c r="I9" s="495"/>
+      <c r="I9" s="491"/>
     </row>
     <row r="10" spans="2:9" hidden="1">
       <c r="B10" s="333" t="s">
@@ -59231,13 +59312,13 @@
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="G10" s="493" t="s">
+      <c r="G10" s="489" t="s">
         <v>470</v>
       </c>
       <c r="H10" s="343" t="s">
         <v>463</v>
       </c>
-      <c r="I10" s="495"/>
+      <c r="I10" s="491"/>
     </row>
     <row r="11" spans="2:9" ht="58" hidden="1">
       <c r="B11" s="333" t="s">
@@ -59256,11 +59337,11 @@
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="G11" s="493"/>
+      <c r="G11" s="489"/>
       <c r="H11" s="342" t="s">
         <v>472</v>
       </c>
-      <c r="I11" s="495"/>
+      <c r="I11" s="491"/>
     </row>
     <row r="12" spans="2:9" hidden="1">
       <c r="B12" s="333" t="s">
@@ -59279,26 +59360,26 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G12" s="493"/>
+      <c r="G12" s="489"/>
       <c r="H12" s="343" t="s">
         <v>463</v>
       </c>
-      <c r="I12" s="495"/>
+      <c r="I12" s="491"/>
     </row>
     <row r="13" spans="2:9" hidden="1">
-      <c r="B13" s="496" t="s">
+      <c r="B13" s="492" t="s">
         <v>474</v>
       </c>
-      <c r="C13" s="498">
+      <c r="C13" s="494">
         <v>9</v>
       </c>
-      <c r="D13" s="498">
+      <c r="D13" s="494">
         <v>0</v>
       </c>
-      <c r="E13" s="498">
+      <c r="E13" s="494">
         <v>3</v>
       </c>
-      <c r="F13" s="498">
+      <c r="F13" s="494">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -59308,21 +59389,21 @@
       <c r="H13" s="344" t="s">
         <v>476</v>
       </c>
-      <c r="I13" s="495"/>
+      <c r="I13" s="491"/>
     </row>
     <row r="14" spans="2:9" hidden="1">
-      <c r="B14" s="497"/>
-      <c r="C14" s="499"/>
-      <c r="D14" s="499"/>
-      <c r="E14" s="499"/>
-      <c r="F14" s="499"/>
+      <c r="B14" s="493"/>
+      <c r="C14" s="495"/>
+      <c r="D14" s="495"/>
+      <c r="E14" s="495"/>
+      <c r="F14" s="495"/>
       <c r="G14" s="338" t="s">
         <v>477</v>
       </c>
       <c r="H14" s="343" t="s">
         <v>478</v>
       </c>
-      <c r="I14" s="495"/>
+      <c r="I14" s="491"/>
     </row>
     <row r="15" spans="2:9" ht="39" hidden="1">
       <c r="B15" s="333" t="s">
@@ -59345,7 +59426,7 @@
       <c r="H15" s="343" t="s">
         <v>480</v>
       </c>
-      <c r="I15" s="495"/>
+      <c r="I15" s="491"/>
     </row>
     <row r="16" spans="2:9" ht="26" hidden="1">
       <c r="B16" s="333" t="s">
@@ -59368,7 +59449,7 @@
       <c r="H16" s="343" t="s">
         <v>480</v>
       </c>
-      <c r="I16" s="495"/>
+      <c r="I16" s="491"/>
     </row>
     <row r="17" spans="1:9" hidden="1">
       <c r="B17" s="333" t="s">
@@ -59391,7 +59472,7 @@
       <c r="H17" s="343" t="s">
         <v>480</v>
       </c>
-      <c r="I17" s="495"/>
+      <c r="I17" s="491"/>
     </row>
     <row r="18" spans="1:9" ht="26" hidden="1">
       <c r="B18" s="333" t="s">
@@ -59416,7 +59497,7 @@
       <c r="H18" s="343" t="s">
         <v>463</v>
       </c>
-      <c r="I18" s="495"/>
+      <c r="I18" s="491"/>
     </row>
     <row r="19" spans="1:9" ht="26" hidden="1">
       <c r="B19" s="333" t="s">
@@ -59439,7 +59520,7 @@
       <c r="H19" s="343" t="s">
         <v>480</v>
       </c>
-      <c r="I19" s="495"/>
+      <c r="I19" s="491"/>
     </row>
     <row r="20" spans="1:9" hidden="1">
       <c r="B20" s="333" t="s">
@@ -59464,7 +59545,7 @@
       <c r="H20" s="343" t="s">
         <v>463</v>
       </c>
-      <c r="I20" s="495"/>
+      <c r="I20" s="491"/>
     </row>
     <row r="21" spans="1:9" hidden="1">
       <c r="B21" s="333" t="s">
@@ -59489,7 +59570,7 @@
       <c r="H21" s="343" t="s">
         <v>463</v>
       </c>
-      <c r="I21" s="495"/>
+      <c r="I21" s="491"/>
     </row>
     <row r="22" spans="1:9" hidden="1">
       <c r="B22" s="341"/>
@@ -59514,28 +59595,28 @@
       <c r="I22" s="341"/>
     </row>
     <row r="24" spans="1:9" ht="23.25" customHeight="1">
-      <c r="B24" s="478" t="s">
+      <c r="B24" s="481" t="s">
         <v>453</v>
       </c>
-      <c r="C24" s="478"/>
-      <c r="D24" s="478"/>
-      <c r="E24" s="478"/>
-      <c r="F24" s="478"/>
-      <c r="G24" s="478"/>
-      <c r="H24" s="478"/>
-      <c r="I24" s="478"/>
+      <c r="C24" s="481"/>
+      <c r="D24" s="481"/>
+      <c r="E24" s="481"/>
+      <c r="F24" s="481"/>
+      <c r="G24" s="481"/>
+      <c r="H24" s="481"/>
+      <c r="I24" s="481"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
-      <c r="B25" s="479" t="s">
+      <c r="B25" s="475" t="s">
         <v>489</v>
       </c>
-      <c r="C25" s="480"/>
-      <c r="D25" s="480"/>
-      <c r="E25" s="480"/>
-      <c r="F25" s="480"/>
-      <c r="G25" s="480"/>
-      <c r="H25" s="480"/>
-      <c r="I25" s="480"/>
+      <c r="C25" s="476"/>
+      <c r="D25" s="476"/>
+      <c r="E25" s="476"/>
+      <c r="F25" s="476"/>
+      <c r="G25" s="476"/>
+      <c r="H25" s="476"/>
+      <c r="I25" s="476"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
       <c r="A26" s="346" t="s">
@@ -59554,10 +59635,10 @@
       <c r="F26" s="334" t="s">
         <v>458</v>
       </c>
-      <c r="G26" s="481" t="s">
+      <c r="G26" s="477" t="s">
         <v>459</v>
       </c>
-      <c r="H26" s="491"/>
+      <c r="H26" s="499"/>
       <c r="I26" s="335" t="s">
         <v>491</v>
       </c>
@@ -59582,7 +59663,7 @@
       <c r="F27" s="368">
         <v>89</v>
       </c>
-      <c r="G27" s="483" t="s">
+      <c r="G27" s="482" t="s">
         <v>492</v>
       </c>
       <c r="H27" s="369"/>
@@ -59608,7 +59689,7 @@
       <c r="F28" s="368">
         <v>6</v>
       </c>
-      <c r="G28" s="483"/>
+      <c r="G28" s="482"/>
       <c r="H28" s="373"/>
       <c r="I28" s="353"/>
     </row>
@@ -59632,7 +59713,7 @@
       <c r="F29" s="368">
         <v>12</v>
       </c>
-      <c r="G29" s="483"/>
+      <c r="G29" s="482"/>
       <c r="H29" s="374"/>
       <c r="I29" s="353"/>
     </row>
@@ -59656,7 +59737,7 @@
       <c r="F30" s="368">
         <v>20</v>
       </c>
-      <c r="G30" s="483"/>
+      <c r="G30" s="482"/>
       <c r="H30" s="352" t="s">
         <v>494</v>
       </c>
@@ -59682,7 +59763,7 @@
       <c r="F31" s="368">
         <v>55</v>
       </c>
-      <c r="G31" s="483"/>
+      <c r="G31" s="482"/>
       <c r="H31" s="352" t="s">
         <v>495</v>
       </c>
@@ -59708,7 +59789,7 @@
       <c r="F32" s="368">
         <v>88</v>
       </c>
-      <c r="G32" s="483"/>
+      <c r="G32" s="482"/>
       <c r="H32" s="352" t="s">
         <v>496</v>
       </c>
@@ -59734,7 +59815,7 @@
       <c r="F33" s="368">
         <v>155</v>
       </c>
-      <c r="G33" s="483"/>
+      <c r="G33" s="482"/>
       <c r="H33" s="352" t="s">
         <v>497</v>
       </c>
@@ -59760,28 +59841,28 @@
       <c r="F34" s="368">
         <v>16</v>
       </c>
-      <c r="G34" s="483"/>
+      <c r="G34" s="482"/>
       <c r="H34" s="369"/>
       <c r="I34" s="353"/>
     </row>
     <row r="35" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A35" s="484">
+      <c r="A35" s="483">
         <v>9</v>
       </c>
-      <c r="B35" s="476" t="s">
+      <c r="B35" s="479" t="s">
         <v>474</v>
       </c>
-      <c r="C35" s="485">
+      <c r="C35" s="496">
         <v>9</v>
       </c>
-      <c r="D35" s="487">
+      <c r="D35" s="484">
         <v>0</v>
       </c>
-      <c r="E35" s="487">
+      <c r="E35" s="484">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F35" s="489">
+      <c r="F35" s="486">
         <v>9</v>
       </c>
       <c r="G35" s="356" t="s">
@@ -59791,12 +59872,12 @@
       <c r="I35" s="353"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="484"/>
-      <c r="B36" s="476"/>
-      <c r="C36" s="486"/>
-      <c r="D36" s="488"/>
-      <c r="E36" s="488"/>
-      <c r="F36" s="490"/>
+      <c r="A36" s="483"/>
+      <c r="B36" s="479"/>
+      <c r="C36" s="497"/>
+      <c r="D36" s="485"/>
+      <c r="E36" s="485"/>
+      <c r="F36" s="487"/>
       <c r="G36" s="356" t="s">
         <v>499</v>
       </c>
@@ -60016,16 +60097,16 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1">
-      <c r="B46" s="479" t="s">
+      <c r="B46" s="475" t="s">
         <v>508</v>
       </c>
-      <c r="C46" s="480"/>
-      <c r="D46" s="480"/>
-      <c r="E46" s="480"/>
-      <c r="F46" s="480"/>
-      <c r="G46" s="480"/>
-      <c r="H46" s="480"/>
-      <c r="I46" s="480"/>
+      <c r="C46" s="476"/>
+      <c r="D46" s="476"/>
+      <c r="E46" s="476"/>
+      <c r="F46" s="476"/>
+      <c r="G46" s="476"/>
+      <c r="H46" s="476"/>
+      <c r="I46" s="476"/>
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1">
       <c r="A47" s="346" t="s">
@@ -60044,10 +60125,10 @@
       <c r="F47" s="334" t="s">
         <v>458</v>
       </c>
-      <c r="G47" s="481" t="s">
+      <c r="G47" s="477" t="s">
         <v>459</v>
       </c>
-      <c r="H47" s="482"/>
+      <c r="H47" s="478"/>
       <c r="I47" s="335" t="s">
         <v>491</v>
       </c>
@@ -60072,7 +60153,7 @@
       <c r="F48" s="368">
         <v>89</v>
       </c>
-      <c r="G48" s="483" t="s">
+      <c r="G48" s="482" t="s">
         <v>509</v>
       </c>
       <c r="H48" s="349"/>
@@ -60098,7 +60179,7 @@
       <c r="F49" s="368">
         <v>6</v>
       </c>
-      <c r="G49" s="483"/>
+      <c r="G49" s="482"/>
       <c r="H49" s="349"/>
       <c r="I49" s="353"/>
     </row>
@@ -60122,7 +60203,7 @@
       <c r="F50" s="368">
         <v>12</v>
       </c>
-      <c r="G50" s="483"/>
+      <c r="G50" s="482"/>
       <c r="H50" s="356" t="s">
         <v>510</v>
       </c>
@@ -60148,7 +60229,7 @@
       <c r="F51" s="368">
         <v>20</v>
       </c>
-      <c r="G51" s="483"/>
+      <c r="G51" s="482"/>
       <c r="H51" s="356" t="s">
         <v>511</v>
       </c>
@@ -60174,7 +60255,7 @@
       <c r="F52" s="368">
         <v>55</v>
       </c>
-      <c r="G52" s="483"/>
+      <c r="G52" s="482"/>
       <c r="H52" s="356" t="s">
         <v>512</v>
       </c>
@@ -60200,7 +60281,7 @@
       <c r="F53" s="368">
         <v>88</v>
       </c>
-      <c r="G53" s="483"/>
+      <c r="G53" s="482"/>
       <c r="H53" s="356" t="s">
         <v>513</v>
       </c>
@@ -60226,7 +60307,7 @@
       <c r="F54" s="368">
         <v>155</v>
       </c>
-      <c r="G54" s="483"/>
+      <c r="G54" s="482"/>
       <c r="H54" s="357"/>
       <c r="I54" s="353"/>
     </row>
@@ -60250,28 +60331,28 @@
       <c r="F55" s="368">
         <v>16</v>
       </c>
-      <c r="G55" s="483"/>
+      <c r="G55" s="482"/>
       <c r="H55" s="349"/>
       <c r="I55" s="353"/>
     </row>
     <row r="56" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A56" s="484">
+      <c r="A56" s="483">
         <v>9</v>
       </c>
-      <c r="B56" s="476" t="s">
+      <c r="B56" s="479" t="s">
         <v>474</v>
       </c>
-      <c r="C56" s="485">
+      <c r="C56" s="496">
         <v>9</v>
       </c>
-      <c r="D56" s="487">
+      <c r="D56" s="484">
         <v>0</v>
       </c>
-      <c r="E56" s="487">
+      <c r="E56" s="484">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F56" s="489">
+      <c r="F56" s="486">
         <v>9</v>
       </c>
       <c r="G56" s="356" t="s">
@@ -60281,12 +60362,12 @@
       <c r="I56" s="353"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="484"/>
-      <c r="B57" s="476"/>
-      <c r="C57" s="486"/>
-      <c r="D57" s="488"/>
-      <c r="E57" s="488"/>
-      <c r="F57" s="490"/>
+      <c r="A57" s="483"/>
+      <c r="B57" s="479"/>
+      <c r="C57" s="497"/>
+      <c r="D57" s="485"/>
+      <c r="E57" s="485"/>
+      <c r="F57" s="487"/>
       <c r="G57" s="356" t="s">
         <v>515</v>
       </c>
@@ -60506,28 +60587,28 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="23.5">
-      <c r="B68" s="478" t="s">
+      <c r="B68" s="481" t="s">
         <v>453</v>
       </c>
-      <c r="C68" s="478"/>
-      <c r="D68" s="478"/>
-      <c r="E68" s="478"/>
-      <c r="F68" s="478"/>
-      <c r="G68" s="478"/>
-      <c r="H68" s="478"/>
-      <c r="I68" s="478"/>
+      <c r="C68" s="481"/>
+      <c r="D68" s="481"/>
+      <c r="E68" s="481"/>
+      <c r="F68" s="481"/>
+      <c r="G68" s="481"/>
+      <c r="H68" s="481"/>
+      <c r="I68" s="481"/>
     </row>
     <row r="69" spans="1:9" ht="14.5">
-      <c r="B69" s="479" t="s">
+      <c r="B69" s="475" t="s">
         <v>524</v>
       </c>
-      <c r="C69" s="480"/>
-      <c r="D69" s="480"/>
-      <c r="E69" s="480"/>
-      <c r="F69" s="480"/>
-      <c r="G69" s="480"/>
-      <c r="H69" s="480"/>
-      <c r="I69" s="480"/>
+      <c r="C69" s="476"/>
+      <c r="D69" s="476"/>
+      <c r="E69" s="476"/>
+      <c r="F69" s="476"/>
+      <c r="G69" s="476"/>
+      <c r="H69" s="476"/>
+      <c r="I69" s="476"/>
     </row>
     <row r="70" spans="1:9" ht="14.5">
       <c r="A70" s="364" t="s">
@@ -60546,10 +60627,10 @@
       <c r="F70" s="367" t="s">
         <v>458</v>
       </c>
-      <c r="G70" s="481" t="s">
+      <c r="G70" s="477" t="s">
         <v>459</v>
       </c>
-      <c r="H70" s="482"/>
+      <c r="H70" s="478"/>
       <c r="I70" s="335" t="s">
         <v>491</v>
       </c>
@@ -60573,7 +60654,7 @@
       <c r="F71" s="345">
         <v>89</v>
       </c>
-      <c r="G71" s="483" t="s">
+      <c r="G71" s="482" t="s">
         <v>525</v>
       </c>
       <c r="H71" s="352" t="s">
@@ -60600,7 +60681,7 @@
       <c r="F72" s="345">
         <v>6</v>
       </c>
-      <c r="G72" s="483"/>
+      <c r="G72" s="482"/>
       <c r="H72" s="349"/>
       <c r="I72" s="346"/>
     </row>
@@ -60623,7 +60704,7 @@
       <c r="F73" s="359">
         <v>12</v>
       </c>
-      <c r="G73" s="483"/>
+      <c r="G73" s="482"/>
       <c r="H73" s="363"/>
       <c r="I73" s="358"/>
     </row>
@@ -60646,7 +60727,7 @@
       <c r="F74" s="345">
         <v>20</v>
       </c>
-      <c r="G74" s="483"/>
+      <c r="G74" s="482"/>
       <c r="H74" s="356" t="s">
         <v>493</v>
       </c>
@@ -60671,7 +60752,7 @@
       <c r="F75" s="345">
         <v>55</v>
       </c>
-      <c r="G75" s="483"/>
+      <c r="G75" s="482"/>
       <c r="H75" s="356" t="s">
         <v>467</v>
       </c>
@@ -60696,7 +60777,7 @@
       <c r="F76" s="345">
         <v>88</v>
       </c>
-      <c r="G76" s="483"/>
+      <c r="G76" s="482"/>
       <c r="H76" s="356" t="s">
         <v>469</v>
       </c>
@@ -60721,7 +60802,7 @@
       <c r="F77" s="345">
         <v>155</v>
       </c>
-      <c r="G77" s="483"/>
+      <c r="G77" s="482"/>
       <c r="H77" s="350"/>
       <c r="I77" s="346"/>
     </row>
@@ -60744,27 +60825,27 @@
       <c r="F78" s="345">
         <v>16</v>
       </c>
-      <c r="G78" s="483"/>
+      <c r="G78" s="482"/>
       <c r="H78" s="349"/>
       <c r="I78" s="346"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="484">
+      <c r="A79" s="483">
         <v>9</v>
       </c>
-      <c r="B79" s="476" t="s">
+      <c r="B79" s="479" t="s">
         <v>474</v>
       </c>
-      <c r="C79" s="477">
+      <c r="C79" s="480">
         <v>9</v>
       </c>
-      <c r="D79" s="477">
+      <c r="D79" s="480">
         <v>0</v>
       </c>
-      <c r="E79" s="477">
+      <c r="E79" s="480">
         <v>3</v>
       </c>
-      <c r="F79" s="477">
+      <c r="F79" s="480">
         <v>9</v>
       </c>
       <c r="G79" s="356" t="s">
@@ -60774,12 +60855,12 @@
       <c r="I79" s="346"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="484"/>
-      <c r="B80" s="476"/>
-      <c r="C80" s="477"/>
-      <c r="D80" s="477"/>
-      <c r="E80" s="477"/>
-      <c r="F80" s="477"/>
+      <c r="A80" s="483"/>
+      <c r="B80" s="479"/>
+      <c r="C80" s="480"/>
+      <c r="D80" s="480"/>
+      <c r="E80" s="480"/>
+      <c r="F80" s="480"/>
       <c r="G80" s="356" t="s">
         <v>528</v>
       </c>
@@ -60986,28 +61067,28 @@
       <c r="I88" s="341"/>
     </row>
     <row r="89" spans="1:9" ht="23.5">
-      <c r="B89" s="478" t="s">
+      <c r="B89" s="481" t="s">
         <v>453</v>
       </c>
-      <c r="C89" s="478"/>
-      <c r="D89" s="478"/>
-      <c r="E89" s="478"/>
-      <c r="F89" s="478"/>
-      <c r="G89" s="478"/>
-      <c r="H89" s="478"/>
-      <c r="I89" s="478"/>
+      <c r="C89" s="481"/>
+      <c r="D89" s="481"/>
+      <c r="E89" s="481"/>
+      <c r="F89" s="481"/>
+      <c r="G89" s="481"/>
+      <c r="H89" s="481"/>
+      <c r="I89" s="481"/>
     </row>
     <row r="90" spans="1:9" ht="14.5">
-      <c r="B90" s="479" t="s">
+      <c r="B90" s="475" t="s">
         <v>530</v>
       </c>
-      <c r="C90" s="480"/>
-      <c r="D90" s="480"/>
-      <c r="E90" s="480"/>
-      <c r="F90" s="480"/>
-      <c r="G90" s="480"/>
-      <c r="H90" s="480"/>
-      <c r="I90" s="480"/>
+      <c r="C90" s="476"/>
+      <c r="D90" s="476"/>
+      <c r="E90" s="476"/>
+      <c r="F90" s="476"/>
+      <c r="G90" s="476"/>
+      <c r="H90" s="476"/>
+      <c r="I90" s="476"/>
     </row>
     <row r="91" spans="1:9" ht="14.5">
       <c r="A91" s="364" t="s">
@@ -61026,10 +61107,10 @@
       <c r="F91" s="367" t="s">
         <v>458</v>
       </c>
-      <c r="G91" s="481" t="s">
+      <c r="G91" s="477" t="s">
         <v>459</v>
       </c>
-      <c r="H91" s="482"/>
+      <c r="H91" s="478"/>
       <c r="I91" s="335" t="s">
         <v>491</v>
       </c>
@@ -61054,7 +61135,7 @@
       <c r="F92" s="345">
         <v>89</v>
       </c>
-      <c r="G92" s="483" t="s">
+      <c r="G92" s="482" t="s">
         <v>531</v>
       </c>
       <c r="H92" s="349"/>
@@ -61080,7 +61161,7 @@
       <c r="F93" s="345">
         <v>6</v>
       </c>
-      <c r="G93" s="483"/>
+      <c r="G93" s="482"/>
       <c r="H93" s="356" t="s">
         <v>532</v>
       </c>
@@ -61106,7 +61187,7 @@
       <c r="F94" s="345">
         <v>12</v>
       </c>
-      <c r="G94" s="483"/>
+      <c r="G94" s="482"/>
       <c r="H94" s="356" t="s">
         <v>533</v>
       </c>
@@ -61132,7 +61213,7 @@
       <c r="F95" s="345">
         <v>20</v>
       </c>
-      <c r="G95" s="483"/>
+      <c r="G95" s="482"/>
       <c r="H95" s="356" t="s">
         <v>534</v>
       </c>
@@ -61158,7 +61239,7 @@
       <c r="F96" s="345">
         <v>55</v>
       </c>
-      <c r="G96" s="483"/>
+      <c r="G96" s="482"/>
       <c r="H96" s="356" t="s">
         <v>535</v>
       </c>
@@ -61184,7 +61265,7 @@
       <c r="F97" s="345">
         <v>88</v>
       </c>
-      <c r="G97" s="483"/>
+      <c r="G97" s="482"/>
       <c r="H97" s="356"/>
       <c r="I97" s="353"/>
     </row>
@@ -61208,7 +61289,7 @@
       <c r="F98" s="345">
         <v>155</v>
       </c>
-      <c r="G98" s="483"/>
+      <c r="G98" s="482"/>
       <c r="H98" s="350"/>
       <c r="I98" s="353"/>
     </row>
@@ -61232,28 +61313,28 @@
       <c r="F99" s="345">
         <v>16</v>
       </c>
-      <c r="G99" s="483"/>
+      <c r="G99" s="482"/>
       <c r="H99" s="349"/>
       <c r="I99" s="353"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="475">
+      <c r="A100" s="498">
         <v>9</v>
       </c>
-      <c r="B100" s="476" t="s">
+      <c r="B100" s="479" t="s">
         <v>474</v>
       </c>
       <c r="C100" s="345">
         <v>0</v>
       </c>
-      <c r="D100" s="477">
+      <c r="D100" s="480">
         <v>0</v>
       </c>
-      <c r="E100" s="477">
+      <c r="E100" s="480">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="F100" s="477">
+      <c r="F100" s="480">
         <v>9</v>
       </c>
       <c r="G100" s="356" t="s">
@@ -61263,14 +61344,14 @@
       <c r="I100" s="353"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="475"/>
-      <c r="B101" s="476"/>
+      <c r="A101" s="498"/>
+      <c r="B101" s="479"/>
       <c r="C101" s="345">
         <v>0</v>
       </c>
-      <c r="D101" s="477"/>
-      <c r="E101" s="477"/>
-      <c r="F101" s="477"/>
+      <c r="D101" s="480"/>
+      <c r="E101" s="480"/>
+      <c r="F101" s="480"/>
       <c r="G101" s="356" t="s">
         <v>537</v>
       </c>
@@ -61484,16 +61565,16 @@
       <c r="I109" s="341"/>
     </row>
     <row r="111" spans="1:9" ht="14.5">
-      <c r="B111" s="479" t="s">
+      <c r="B111" s="475" t="s">
         <v>544</v>
       </c>
-      <c r="C111" s="480"/>
-      <c r="D111" s="480"/>
-      <c r="E111" s="480"/>
-      <c r="F111" s="480"/>
-      <c r="G111" s="480"/>
-      <c r="H111" s="480"/>
-      <c r="I111" s="480"/>
+      <c r="C111" s="476"/>
+      <c r="D111" s="476"/>
+      <c r="E111" s="476"/>
+      <c r="F111" s="476"/>
+      <c r="G111" s="476"/>
+      <c r="H111" s="476"/>
+      <c r="I111" s="476"/>
     </row>
     <row r="112" spans="1:9" ht="14.5">
       <c r="A112" s="346" t="s">
@@ -61512,10 +61593,10 @@
       <c r="F112" s="334" t="s">
         <v>458</v>
       </c>
-      <c r="G112" s="481" t="s">
+      <c r="G112" s="477" t="s">
         <v>459</v>
       </c>
-      <c r="H112" s="482"/>
+      <c r="H112" s="478"/>
       <c r="I112" s="335" t="s">
         <v>491</v>
       </c>
@@ -61539,7 +61620,7 @@
       <c r="F113" s="368">
         <v>89</v>
       </c>
-      <c r="G113" s="483" t="s">
+      <c r="G113" s="482" t="s">
         <v>545</v>
       </c>
       <c r="H113" s="349"/>
@@ -61564,7 +61645,7 @@
       <c r="F114" s="368">
         <v>6</v>
       </c>
-      <c r="G114" s="483"/>
+      <c r="G114" s="482"/>
       <c r="H114" s="356" t="s">
         <v>546</v>
       </c>
@@ -61589,7 +61670,7 @@
       <c r="F115" s="368">
         <v>12</v>
       </c>
-      <c r="G115" s="483"/>
+      <c r="G115" s="482"/>
       <c r="H115" s="356" t="s">
         <v>547</v>
       </c>
@@ -61612,7 +61693,7 @@
       <c r="F116" s="368">
         <v>20</v>
       </c>
-      <c r="G116" s="483"/>
+      <c r="G116" s="482"/>
       <c r="H116" s="356" t="s">
         <v>548</v>
       </c>
@@ -61637,7 +61718,7 @@
       <c r="F117" s="368">
         <v>55</v>
       </c>
-      <c r="G117" s="483"/>
+      <c r="G117" s="482"/>
       <c r="H117" s="356" t="s">
         <v>549</v>
       </c>
@@ -61662,7 +61743,7 @@
       <c r="F118" s="368">
         <v>88</v>
       </c>
-      <c r="G118" s="483"/>
+      <c r="G118" s="482"/>
       <c r="H118" s="356"/>
       <c r="I118" s="346"/>
     </row>
@@ -61685,7 +61766,7 @@
       <c r="F119" s="368">
         <v>155</v>
       </c>
-      <c r="G119" s="483"/>
+      <c r="G119" s="482"/>
       <c r="H119" s="350"/>
       <c r="I119" s="346"/>
     </row>
@@ -61708,27 +61789,27 @@
       <c r="F120" s="368">
         <v>16</v>
       </c>
-      <c r="G120" s="483"/>
+      <c r="G120" s="482"/>
       <c r="H120" s="349"/>
       <c r="I120" s="346"/>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="484">
+      <c r="A121" s="483">
         <v>9</v>
       </c>
-      <c r="B121" s="476" t="s">
+      <c r="B121" s="479" t="s">
         <v>474</v>
       </c>
-      <c r="C121" s="487">
+      <c r="C121" s="484">
         <v>0</v>
       </c>
-      <c r="D121" s="487">
+      <c r="D121" s="484">
         <v>0</v>
       </c>
-      <c r="E121" s="487">
+      <c r="E121" s="484">
         <v>0</v>
       </c>
-      <c r="F121" s="489">
+      <c r="F121" s="486">
         <v>9</v>
       </c>
       <c r="G121" s="356" t="s">
@@ -61738,12 +61819,12 @@
       <c r="I121" s="346"/>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="484"/>
-      <c r="B122" s="476"/>
-      <c r="C122" s="488"/>
-      <c r="D122" s="488"/>
-      <c r="E122" s="488"/>
-      <c r="F122" s="490"/>
+      <c r="A122" s="483"/>
+      <c r="B122" s="479"/>
+      <c r="C122" s="485"/>
+      <c r="D122" s="485"/>
+      <c r="E122" s="485"/>
+      <c r="F122" s="487"/>
       <c r="G122" s="356" t="s">
         <v>551</v>
       </c>
@@ -61949,48 +62030,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B111:I111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="B89:I89"/>
-    <mergeCell ref="B90:I90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:G99"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G113:G120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="I6:I21"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G27:G34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B69:I69"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G71:G78"/>
-    <mergeCell ref="G70:H70"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="B100:B101"/>
     <mergeCell ref="D100:D101"/>
@@ -62007,48 +62046,90 @@
     <mergeCell ref="F56:F57"/>
     <mergeCell ref="B25:I25"/>
     <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:G34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B69:I69"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G71:G78"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="I6:I21"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G113:G120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="B111:I111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="B89:I89"/>
+    <mergeCell ref="B90:I90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:G99"/>
+    <mergeCell ref="F100:F101"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
-    <cfRule type="cellIs" dxfId="221" priority="41" operator="equal">
-      <formula>"Not Start"</formula>
+    <cfRule type="cellIs" dxfId="221" priority="48" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="220" priority="42" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="41" operator="equal">
+      <formula>"Not Start"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="43" operator="equal">
       <formula>"Listed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="44" operator="equal">
       <formula>"Testing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="45" operator="equal">
       <formula>"NT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="46" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="47" operator="equal">
       <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="48" operator="equal">
-      <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26">
-    <cfRule type="cellIs" dxfId="213" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="13" operator="equal">
+      <formula>"NT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="9" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="10" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="11" operator="equal">
       <formula>"Listed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="12" operator="equal">
       <formula>"Testing"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="13" operator="equal">
-      <formula>"NT"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="208" priority="14" operator="equal">
       <formula>"NA"</formula>
@@ -62061,29 +62142,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:F47">
-    <cfRule type="cellIs" dxfId="205" priority="17" operator="equal">
-      <formula>"Not Start"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="18" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="19" operator="equal">
       <formula>"Listed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="20" operator="equal">
       <formula>"Testing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="21" operator="equal">
       <formula>"NT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="22" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="23" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="24" operator="equal">
       <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="17" operator="equal">
+      <formula>"Not Start"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:F70">
@@ -62096,20 +62177,20 @@
     <cfRule type="cellIs" dxfId="195" priority="35" operator="equal">
       <formula>"Listed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="36" operator="equal">
-      <formula>"Testing"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="37" operator="equal">
       <formula>"NT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="38" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="39" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="40" operator="equal">
       <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="36" operator="equal">
+      <formula>"Testing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:F91">
@@ -62131,37 +62212,37 @@
     <cfRule type="cellIs" dxfId="184" priority="6" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="8" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="7" operator="equal">
       <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="8" operator="equal">
-      <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112:F112">
-    <cfRule type="cellIs" dxfId="181" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="27" operator="equal">
+      <formula>"Listed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="25" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="26" operator="equal">
-      <formula>"DONE"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="27" operator="equal">
-      <formula>"Listed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="28" operator="equal">
       <formula>"Testing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="29" operator="equal">
       <formula>"NT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="30" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="31" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="32" operator="equal">
       <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="26" operator="equal">
+      <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -62249,6 +62330,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Date xmlns="1492f413-4a9d-4f08-bc25-56483f53bae1" xsi:nil="true"/>
+    <TaxCatchAll xmlns="c00ac192-0740-45a5-a1c0-1c36b976cb30" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1492f413-4a9d-4f08-bc25-56483f53bae1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="1492f413-4a9d-4f08-bc25-56483f53bae1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010070E08B0E47AA8B499741AD1DB1EC77AB" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7cfd0e048161c59c1016edb924609b18">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1492f413-4a9d-4f08-bc25-56483f53bae1" xmlns:ns3="c00ac192-0740-45a5-a1c0-1c36b976cb30" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4be9abedd6b5902b79393e1f8268fb30" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="1492f413-4a9d-4f08-bc25-56483f53bae1"/>
@@ -62506,30 +62610,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AABD7EB-8011-4DDF-BC09-C36096432370}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1492f413-4a9d-4f08-bc25-56483f53bae1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c00ac192-0740-45a5-a1c0-1c36b976cb30"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Date xmlns="1492f413-4a9d-4f08-bc25-56483f53bae1" xsi:nil="true"/>
-    <TaxCatchAll xmlns="c00ac192-0740-45a5-a1c0-1c36b976cb30" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1492f413-4a9d-4f08-bc25-56483f53bae1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="1492f413-4a9d-4f08-bc25-56483f53bae1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AED60AF1-169F-4C58-8F0A-F563ECE5A156}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D2443D-0F49-4B6F-9079-15848BB5A314}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -62547,24 +62654,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AED60AF1-169F-4C58-8F0A-F563ECE5A156}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AABD7EB-8011-4DDF-BC09-C36096432370}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1492f413-4a9d-4f08-bc25-56483f53bae1"/>
-    <ds:schemaRef ds:uri="c00ac192-0740-45a5-a1c0-1c36b976cb30"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>